--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P303"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16132,6 +16132,222 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="C304" t="n">
+        <v>329.77</v>
+      </c>
+      <c r="D304" t="n">
+        <v>338.33</v>
+      </c>
+      <c r="E304" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="F304" t="n">
+        <v>345.89</v>
+      </c>
+      <c r="G304" t="n">
+        <v>346.39</v>
+      </c>
+      <c r="H304" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="I304" t="n">
+        <v>358.64</v>
+      </c>
+      <c r="J304" t="n">
+        <v>358.02</v>
+      </c>
+      <c r="K304" t="n">
+        <v>362.19</v>
+      </c>
+      <c r="L304" t="n">
+        <v>364.85</v>
+      </c>
+      <c r="M304" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="N304" t="n">
+        <v>366.79</v>
+      </c>
+      <c r="O304" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>320.8</v>
+      </c>
+      <c r="C305" t="n">
+        <v>325.43</v>
+      </c>
+      <c r="D305" t="n">
+        <v>333.05</v>
+      </c>
+      <c r="E305" t="n">
+        <v>339.32</v>
+      </c>
+      <c r="F305" t="n">
+        <v>336.89</v>
+      </c>
+      <c r="G305" t="n">
+        <v>337.84</v>
+      </c>
+      <c r="H305" t="n">
+        <v>339.53</v>
+      </c>
+      <c r="I305" t="n">
+        <v>346.55</v>
+      </c>
+      <c r="J305" t="n">
+        <v>344.1</v>
+      </c>
+      <c r="K305" t="n">
+        <v>348.09</v>
+      </c>
+      <c r="L305" t="n">
+        <v>349.74</v>
+      </c>
+      <c r="M305" t="n">
+        <v>365.6533333333333</v>
+      </c>
+      <c r="N305" t="n">
+        <v>355.97</v>
+      </c>
+      <c r="O305" t="n">
+        <v>361.26</v>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>325.06</v>
+      </c>
+      <c r="C306" t="n">
+        <v>334.01</v>
+      </c>
+      <c r="D306" t="n">
+        <v>341.33</v>
+      </c>
+      <c r="E306" t="n">
+        <v>346.79</v>
+      </c>
+      <c r="F306" t="n">
+        <v>346.03</v>
+      </c>
+      <c r="G306" t="n">
+        <v>346</v>
+      </c>
+      <c r="H306" t="n">
+        <v>348.4</v>
+      </c>
+      <c r="I306" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="J306" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="K306" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="L306" t="n">
+        <v>359.04</v>
+      </c>
+      <c r="M306" t="n">
+        <v>372.3855555555555</v>
+      </c>
+      <c r="N306" t="n">
+        <v>360.36</v>
+      </c>
+      <c r="O306" t="n">
+        <v>371.24</v>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="C307" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="D307" t="n">
+        <v>338.98</v>
+      </c>
+      <c r="E307" t="n">
+        <v>342.46</v>
+      </c>
+      <c r="F307" t="n">
+        <v>342.79</v>
+      </c>
+      <c r="G307" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="H307" t="n">
+        <v>344.76</v>
+      </c>
+      <c r="I307" t="n">
+        <v>351.59</v>
+      </c>
+      <c r="J307" t="n">
+        <v>348.21</v>
+      </c>
+      <c r="K307" t="n">
+        <v>353.19</v>
+      </c>
+      <c r="L307" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="M307" t="n">
+        <v>368.7966666666667</v>
+      </c>
+      <c r="N307" t="n">
+        <v>360.56</v>
+      </c>
+      <c r="O307" t="n">
+        <v>364.98</v>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16143,7 +16359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19291,6 +19507,46 @@
       </c>
       <c r="B314" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -19459,28 +19715,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3912787674806602</v>
+        <v>0.458431796869699</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03704465648102906</v>
+        <v>0.05018757482699565</v>
       </c>
       <c r="M2" t="n">
-        <v>10.54482486550309</v>
+        <v>10.71635324168663</v>
       </c>
       <c r="N2" t="n">
-        <v>189.9183182007244</v>
+        <v>193.5200302809323</v>
       </c>
       <c r="O2" t="n">
-        <v>13.78108552330782</v>
+        <v>13.91114769819271</v>
       </c>
       <c r="P2" t="n">
-        <v>292.2771465080751</v>
+        <v>291.5949132370663</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19536,28 +19792,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4695360159321248</v>
+        <v>0.5277304292651872</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0630543337189633</v>
+        <v>0.07856005250836684</v>
       </c>
       <c r="M3" t="n">
-        <v>9.800788321609893</v>
+        <v>9.888923696746872</v>
       </c>
       <c r="N3" t="n">
-        <v>156.2234807566896</v>
+        <v>158.8334143857526</v>
       </c>
       <c r="O3" t="n">
-        <v>12.49893918525447</v>
+        <v>12.60291293256256</v>
       </c>
       <c r="P3" t="n">
-        <v>299.7926953882192</v>
+        <v>299.2017646758496</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19613,28 +19869,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4917341597638636</v>
+        <v>0.5374107133807405</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07254784038076589</v>
+        <v>0.08623455263833146</v>
       </c>
       <c r="M4" t="n">
-        <v>9.508126648103838</v>
+        <v>9.577750719760157</v>
       </c>
       <c r="N4" t="n">
-        <v>149.6887802816923</v>
+        <v>150.8631094331194</v>
       </c>
       <c r="O4" t="n">
-        <v>12.2347366249418</v>
+        <v>12.28263446631542</v>
       </c>
       <c r="P4" t="n">
-        <v>310.171210818042</v>
+        <v>309.7083969393179</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19690,28 +19946,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4943403631352562</v>
+        <v>0.5342546481807608</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07787215639754275</v>
+        <v>0.09089635075064106</v>
       </c>
       <c r="M5" t="n">
-        <v>9.011561924245937</v>
+        <v>9.073815123352048</v>
       </c>
       <c r="N5" t="n">
-        <v>137.5601471315827</v>
+        <v>138.1132124300349</v>
       </c>
       <c r="O5" t="n">
-        <v>11.72860380145832</v>
+        <v>11.75215777761833</v>
       </c>
       <c r="P5" t="n">
-        <v>317.4111884978535</v>
+        <v>317.0002557862996</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19767,28 +20023,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4369064695478525</v>
+        <v>0.477739564203996</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05621166799293931</v>
+        <v>0.06732253136070365</v>
       </c>
       <c r="M6" t="n">
-        <v>9.423261576974483</v>
+        <v>9.474634844237491</v>
       </c>
       <c r="N6" t="n">
-        <v>152.6247833163843</v>
+        <v>153.2181717839012</v>
       </c>
       <c r="O6" t="n">
-        <v>12.35414033093296</v>
+        <v>12.37813280684535</v>
       </c>
       <c r="P6" t="n">
-        <v>318.0701374706877</v>
+        <v>317.6502636615332</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19844,28 +20100,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3685476708503537</v>
+        <v>0.4073202922554197</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04740161314963642</v>
+        <v>0.05807587021832128</v>
       </c>
       <c r="M7" t="n">
-        <v>8.881675505530662</v>
+        <v>8.922836609787842</v>
       </c>
       <c r="N7" t="n">
-        <v>130.3893220455154</v>
+        <v>130.9254918300702</v>
       </c>
       <c r="O7" t="n">
-        <v>11.41881438878465</v>
+        <v>11.44226777479317</v>
       </c>
       <c r="P7" t="n">
-        <v>321.1734163823915</v>
+        <v>320.7786898930614</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19921,28 +20177,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.36963375224863</v>
+        <v>0.40844464779892</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04810435572200422</v>
+        <v>0.05895859046179108</v>
       </c>
       <c r="M8" t="n">
-        <v>8.650183005203523</v>
+        <v>8.712286589689272</v>
       </c>
       <c r="N8" t="n">
-        <v>128.4504328194801</v>
+        <v>129.0178669323184</v>
       </c>
       <c r="O8" t="n">
-        <v>11.33359752327036</v>
+        <v>11.3586032122052</v>
       </c>
       <c r="P8" t="n">
-        <v>324.1245265198788</v>
+        <v>323.732018637334</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19998,28 +20254,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.413795360248985</v>
+        <v>0.44947831385731</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K9" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05714051760309657</v>
+        <v>0.06810728456929105</v>
       </c>
       <c r="M9" t="n">
-        <v>8.675998073127159</v>
+        <v>8.699258962942238</v>
       </c>
       <c r="N9" t="n">
-        <v>132.1412675277298</v>
+        <v>132.1510977798099</v>
       </c>
       <c r="O9" t="n">
-        <v>11.49527152909969</v>
+        <v>11.4956990992201</v>
       </c>
       <c r="P9" t="n">
-        <v>331.8285461562825</v>
+        <v>331.469066218493</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -20075,28 +20331,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4616984260367019</v>
+        <v>0.4930840662286521</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>0.067473565430066</v>
+        <v>0.07781453406635508</v>
       </c>
       <c r="M10" t="n">
-        <v>9.123891473756395</v>
+        <v>9.121912791223579</v>
       </c>
       <c r="N10" t="n">
-        <v>138.893866661162</v>
+        <v>138.6507536183478</v>
       </c>
       <c r="O10" t="n">
-        <v>11.78532420687535</v>
+        <v>11.7750054614997</v>
       </c>
       <c r="P10" t="n">
-        <v>329.3927242622709</v>
+        <v>329.0755627152546</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20152,28 +20408,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4649347932924323</v>
+        <v>0.4952570481594031</v>
       </c>
       <c r="J11" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K11" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07639607752011668</v>
+        <v>0.08740598551879153</v>
       </c>
       <c r="M11" t="n">
-        <v>8.709096341878443</v>
+        <v>8.721498498707824</v>
       </c>
       <c r="N11" t="n">
-        <v>123.2073812895593</v>
+        <v>123.1549646457773</v>
       </c>
       <c r="O11" t="n">
-        <v>11.09988203944345</v>
+        <v>11.09752065309082</v>
       </c>
       <c r="P11" t="n">
-        <v>334.2547233255299</v>
+        <v>333.9466985063742</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -20229,28 +20485,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4146571118608855</v>
+        <v>0.4351782078417834</v>
       </c>
       <c r="J12" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K12" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06306745556737481</v>
+        <v>0.07068157733011271</v>
       </c>
       <c r="M12" t="n">
-        <v>8.67248871606683</v>
+        <v>8.638940747308556</v>
       </c>
       <c r="N12" t="n">
-        <v>120.5864184211648</v>
+        <v>119.8911317515292</v>
       </c>
       <c r="O12" t="n">
-        <v>10.98118474578972</v>
+        <v>10.94948088959149</v>
       </c>
       <c r="P12" t="n">
-        <v>340.147147004725</v>
+        <v>339.9388217868757</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -20306,28 +20562,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3090703951951304</v>
+        <v>0.339447146009896</v>
       </c>
       <c r="J13" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K13" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03328713177267029</v>
+        <v>0.04068508250425473</v>
       </c>
       <c r="M13" t="n">
-        <v>8.995142193549873</v>
+        <v>8.992798900520677</v>
       </c>
       <c r="N13" t="n">
-        <v>131.4731008210623</v>
+        <v>131.101234935714</v>
       </c>
       <c r="O13" t="n">
-        <v>11.46617202125724</v>
+        <v>11.44994475688481</v>
       </c>
       <c r="P13" t="n">
-        <v>351.6133661120336</v>
+        <v>351.3017684168992</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -20383,28 +20639,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2026342121237855</v>
+        <v>0.2329319424990327</v>
       </c>
       <c r="J14" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K14" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01334623737215768</v>
+        <v>0.01794539786033389</v>
       </c>
       <c r="M14" t="n">
-        <v>9.39884683168523</v>
+        <v>9.380308137830987</v>
       </c>
       <c r="N14" t="n">
-        <v>145.2337679595226</v>
+        <v>144.7471934510454</v>
       </c>
       <c r="O14" t="n">
-        <v>12.05129735586682</v>
+        <v>12.03109277875644</v>
       </c>
       <c r="P14" t="n">
-        <v>345.7829379449483</v>
+        <v>345.4761263460879</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -20460,28 +20716,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3042949078817223</v>
+        <v>0.3485619848013155</v>
       </c>
       <c r="J15" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K15" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02685895545844874</v>
+        <v>0.03547259218268661</v>
       </c>
       <c r="M15" t="n">
-        <v>9.964364659243364</v>
+        <v>10.0186346564811</v>
       </c>
       <c r="N15" t="n">
-        <v>162.0933659256403</v>
+        <v>162.7482211437438</v>
       </c>
       <c r="O15" t="n">
-        <v>12.73158929300032</v>
+        <v>12.75728110310907</v>
       </c>
       <c r="P15" t="n">
-        <v>343.7754378481133</v>
+        <v>343.3314683031141</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -20518,7 +20774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P303"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43984,6 +44240,334 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.44026674934124,174.4140503423482</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.44001018479281,174.41489475665273</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.439740819367145,174.41574280469703</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.43945059999904,174.41658991205443</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.4390992340526,174.4173974193853</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.438742795899735,174.41818917707434</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-35.438321800981285,174.41893089992803</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-35.43788201368245,174.41965790498645</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>-35.437393026981404,174.42033057392047</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>-35.43686381360301,174.420953302668</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>-35.43630429500768,174.42153216051315</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>-35.435724429126665,174.42205738346962</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>-35.43507781021152,174.42244927289406</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>-35.434404429802086,174.4228005281415</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.44028148929051,174.4140554690659</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.4400478149503,174.41490784506874</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.43978620059092,174.4157603515006</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.4394921928448,174.41661198218262</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.43917058526045,174.41744461529018</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.438809134339294,174.41823713194952</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-35.43841135214536,174.41899941025912</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-35.43796854587773,174.41973887587605</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-35.4374842472884,174.42043587131297</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>-35.43695170145373,174.42106551012313</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-35.436393385601306,174.4216580659968</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>-35.43575136822165,174.42211145257446</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>-35.435114359028624,174.4225597730983</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>-35.43441899478966,174.42284537153807</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.440244552711185,174.41404262211813</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.43997342168778,174.4148819698254</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.43971503457942,174.4157328349314</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.43943042374608,174.41657920607616</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.439098124144756,174.41739668522746</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.43874582186411,174.41819136448794</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-35.43834357750558,174.41894755984933</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-35.43790226894938,174.4196768584545</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-35.43742166440163,174.42036363061933</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-35.43688151584571,174.42097590329897</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-35.43633855156609,174.4215805728471</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-35.43571980905893,174.42204811060077</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-35.43509953008483,174.42251493982445</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-35.434385807875294,174.42274319414133</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.440239783903856,174.41404096347557</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.43999553157428,174.4148896600149</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.43973523266323,174.41574064458055</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.43946622832536,174.41659820480362</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.439123810582146,174.41741367574295</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-35.43876902092286,174.41820813466455</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-35.438371390325834,174.41896883779714</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-35.437932472910255,174.4197051212408</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-35.43745731371667,174.42040478132532</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-35.43691991224396,174.42102492441975</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-35.43636107479983,174.42161240335398</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-35.435736632977346,174.42208187764786</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-35.43509885450612,174.42251289730666</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-35.43440662452733,174.42280728536466</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -19560,7 +19560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19651,35 +19651,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19738,27 +19743,28 @@
       <c r="P2" t="n">
         <v>291.5949132370663</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.41502294585717 -35.443062999123775, 174.41223402868243 -35.43504424980496)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4150229458572</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.44306299912378</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4122340286824</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43504424980496</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4136284872698</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.43905362446436</v>
       </c>
     </row>
@@ -19815,27 +19821,28 @@
       <c r="P3" t="n">
         <v>299.2017646758496</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.41588930147697 -35.44286946432446, 174.41310033391255 -35.43485072244537)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.415889301477</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.44286946432446</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4131003339126</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.43485072244537</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4144948176948</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.43886009338492</v>
       </c>
     </row>
@@ -19892,27 +19899,28 @@
       <c r="P4" t="n">
         <v>309.7083969393179</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.41686720409166 -35.442648734858025, 174.4137937811943 -35.43469971736207)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4168672040917</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.44264873485803</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4137937811943</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43469971736207</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.415330492643</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.43867422611005</v>
       </c>
     </row>
@@ -19969,27 +19977,28 @@
       <c r="P5" t="n">
         <v>317.0002557862996</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.41810087019937 -35.442298003614866, 174.41404258746059 -35.4346496440881)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4181008701994</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.44229800361487</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4140425874606</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.4346496440881</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.41607172883</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.43847382385148</v>
       </c>
     </row>
@@ -20046,27 +20055,28 @@
       <c r="P6" t="n">
         <v>317.6502636615332</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.419211323937 -35.44184140426884, 174.41436051318217 -35.43450769666583)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.419211323937</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.44184140426884</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4143605131822</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.43450769666583</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4167859185596</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.43817455046734</v>
       </c>
     </row>
@@ -20123,27 +20133,28 @@
       <c r="P7" t="n">
         <v>320.7786898930614</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.42013205851572 -35.44143037768747, 174.4149435531977 -35.43425265063385)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4201320585157</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.44143037768747</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4149435531977</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.43425265063385</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4175378058567</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.43784151416066</v>
       </c>
     </row>
@@ -20200,27 +20211,28 @@
       <c r="P8" t="n">
         <v>323.732018637334</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.42098423071462 -35.44100564261457, 174.4155764333258 -35.43393681400863)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4209842307146</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.44100564261457</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4155764333258</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.43393681400863</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4182803320202</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.4374712283116</v>
       </c>
     </row>
@@ -20277,27 +20289,28 @@
       <c r="P9" t="n">
         <v>331.469066218493</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.4220599147284 -35.4404488954288, 174.4158632740143 -35.43382648072788)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.4220599147284</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.4404488954288</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.4158632740143</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.43382648072788</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4189615943714</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.43713768807834</v>
       </c>
     </row>
@@ -20354,27 +20367,28 @@
       <c r="P10" t="n">
         <v>329.0755627152546</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.4230388803721 -35.43973916615745, 174.41603879966405 -35.43367475549886)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.4230388803721</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.43973916615745</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4160387996641</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.43367475549886</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4195388400181</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.43670696082816</v>
       </c>
     </row>
@@ -20431,27 +20445,28 @@
       <c r="P11" t="n">
         <v>333.9466985063742</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.42383567909474 -35.43912137411644, 174.4164708406104 -35.43335262370995)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.4238356790947</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.43912137411644</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.4164708406104</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.43335262370995</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.4201532598526</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.43623699891319</v>
       </c>
     </row>
@@ -20508,27 +20523,28 @@
       <c r="P12" t="n">
         <v>339.9388217868757</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.4245723843798 -35.43845546083985, 174.41686021209958 -35.43299819241439)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.4245723843798</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.43845546083985</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.4168602120996</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.43299819241439</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.4207162982397</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.43572682662712</v>
       </c>
     </row>
@@ -20585,27 +20601,28 @@
       <c r="P13" t="n">
         <v>351.3017684168992</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.42555187622648 -35.437465417933225, 174.4168414299221 -35.43312545942981)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.4255518762265</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.43746541793323</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.4168414299221</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.43312545942981</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.4211966530743</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.43529543868152</v>
       </c>
     </row>
@@ -20662,27 +20679,28 @@
       <c r="P14" t="n">
         <v>345.4761263460879</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.42619520218224 -35.43631673025255, 174.41673860752394 -35.43318877760831)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.4261952021822</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.43631673025255</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.4167386075239</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.43318877760831</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.4214669048531</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.43475275393043</v>
       </c>
     </row>
@@ -20739,27 +20757,28 @@
       <c r="P15" t="n">
         <v>343.3314683031141</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.4265440842512 -35.435620248208, 174.41706366047225 -35.43254093130118)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.4265440842512</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.435620248208</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.4170636604723</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.43254093130118</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.4218038723617</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.43408058975459</v>
       </c>
     </row>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P307"/>
+  <dimension ref="A1:P309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16348,6 +16348,112 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>319.67</v>
+      </c>
+      <c r="C308" t="n">
+        <v>324.77</v>
+      </c>
+      <c r="D308" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="E308" t="n">
+        <v>340.84</v>
+      </c>
+      <c r="F308" t="n">
+        <v>341.56</v>
+      </c>
+      <c r="G308" t="n">
+        <v>342.87</v>
+      </c>
+      <c r="H308" t="n">
+        <v>344.08</v>
+      </c>
+      <c r="I308" t="n">
+        <v>349.96</v>
+      </c>
+      <c r="J308" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="K308" t="n">
+        <v>348.52</v>
+      </c>
+      <c r="L308" t="n">
+        <v>359.26</v>
+      </c>
+      <c r="M308" t="n">
+        <v>362.6022222222222</v>
+      </c>
+      <c r="N308" t="n">
+        <v>357.09</v>
+      </c>
+      <c r="O308" t="n">
+        <v>354.3</v>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="C309" t="n">
+        <v>295.91</v>
+      </c>
+      <c r="D309" t="n">
+        <v>306.07</v>
+      </c>
+      <c r="E309" t="n">
+        <v>308.23</v>
+      </c>
+      <c r="F309" t="n">
+        <v>303.48</v>
+      </c>
+      <c r="G309" t="n">
+        <v>305.44</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="n">
+        <v>311.71</v>
+      </c>
+      <c r="J309" t="n">
+        <v>313.88</v>
+      </c>
+      <c r="K309" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="L309" t="n">
+        <v>321.26</v>
+      </c>
+      <c r="M309" t="n">
+        <v>332.8588888888889</v>
+      </c>
+      <c r="N309" t="n">
+        <v>325.67</v>
+      </c>
+      <c r="O309" t="n">
+        <v>324.96</v>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16359,7 +16465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19547,6 +19653,26 @@
       </c>
       <c r="B318" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -19720,28 +19846,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.458431796869699</v>
+        <v>0.4530666251340011</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05018757482699565</v>
+        <v>0.04917363423608112</v>
       </c>
       <c r="M2" t="n">
-        <v>10.71635324168663</v>
+        <v>10.77930674048228</v>
       </c>
       <c r="N2" t="n">
-        <v>193.5200302809323</v>
+        <v>195.0103704898385</v>
       </c>
       <c r="O2" t="n">
-        <v>13.91114769819271</v>
+        <v>13.96461136193337</v>
       </c>
       <c r="P2" t="n">
-        <v>291.5949132370663</v>
+        <v>291.6507006375222</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19798,28 +19924,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5277304292651872</v>
+        <v>0.5239522977625612</v>
       </c>
       <c r="J3" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07856005250836684</v>
+        <v>0.07804572755226913</v>
       </c>
       <c r="M3" t="n">
-        <v>9.888923696746872</v>
+        <v>9.923615202928126</v>
       </c>
       <c r="N3" t="n">
-        <v>158.8334143857526</v>
+        <v>159.2343906427338</v>
       </c>
       <c r="O3" t="n">
-        <v>12.60291293256256</v>
+        <v>12.6188109837153</v>
       </c>
       <c r="P3" t="n">
-        <v>299.2017646758496</v>
+        <v>299.2410458476487</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19876,28 +20002,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5374107133807405</v>
+        <v>0.5323527559890612</v>
       </c>
       <c r="J4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08623455263833146</v>
+        <v>0.08524889287543735</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577750719760157</v>
+        <v>9.610063272023689</v>
       </c>
       <c r="N4" t="n">
-        <v>150.8631094331194</v>
+        <v>151.2667688538532</v>
       </c>
       <c r="O4" t="n">
-        <v>12.28263446631542</v>
+        <v>12.29905560821046</v>
       </c>
       <c r="P4" t="n">
-        <v>309.7083969393179</v>
+        <v>309.7606799324403</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19954,28 +20080,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5342546481807608</v>
+        <v>0.5249810816207773</v>
       </c>
       <c r="J5" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09089635075064106</v>
+        <v>0.0880891047831881</v>
       </c>
       <c r="M5" t="n">
-        <v>9.073815123352048</v>
+        <v>9.123517257891168</v>
       </c>
       <c r="N5" t="n">
-        <v>138.1132124300349</v>
+        <v>139.2676689173062</v>
       </c>
       <c r="O5" t="n">
-        <v>11.75215777761833</v>
+        <v>11.80117235351243</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0002557862996</v>
+        <v>317.0973144120903</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20032,28 +20158,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.477739564203996</v>
+        <v>0.4667356018003912</v>
       </c>
       <c r="J6" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06732253136070365</v>
+        <v>0.06427399053942573</v>
       </c>
       <c r="M6" t="n">
-        <v>9.474634844237491</v>
+        <v>9.543368092780169</v>
       </c>
       <c r="N6" t="n">
-        <v>153.2181717839012</v>
+        <v>155.0364542875642</v>
       </c>
       <c r="O6" t="n">
-        <v>12.37813280684535</v>
+        <v>12.45136355133703</v>
       </c>
       <c r="P6" t="n">
-        <v>317.6502636615332</v>
+        <v>317.7652821551413</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20110,28 +20236,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4073202922554197</v>
+        <v>0.3965591630108775</v>
       </c>
       <c r="J7" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05807587021832128</v>
+        <v>0.05495720921991221</v>
       </c>
       <c r="M7" t="n">
-        <v>8.922836609787842</v>
+        <v>8.993826069758544</v>
       </c>
       <c r="N7" t="n">
-        <v>130.9254918300702</v>
+        <v>132.801761729708</v>
       </c>
       <c r="O7" t="n">
-        <v>11.44226777479317</v>
+        <v>11.52396467062044</v>
       </c>
       <c r="P7" t="n">
-        <v>320.7786898930614</v>
+        <v>320.8900495972148</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20188,28 +20314,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.40844464779892</v>
+        <v>0.4162006649919428</v>
       </c>
       <c r="J8" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05895859046179108</v>
+        <v>0.06141251110589918</v>
       </c>
       <c r="M8" t="n">
-        <v>8.712286589689272</v>
+        <v>8.718168888124662</v>
       </c>
       <c r="N8" t="n">
-        <v>129.0178669323184</v>
+        <v>128.9071980268062</v>
       </c>
       <c r="O8" t="n">
-        <v>11.3586032122052</v>
+        <v>11.35373057751531</v>
       </c>
       <c r="P8" t="n">
-        <v>323.732018637334</v>
+        <v>323.6529490082644</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20266,28 +20392,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.44947831385731</v>
+        <v>0.4294744308424386</v>
       </c>
       <c r="J9" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06810728456929105</v>
+        <v>0.06199355646381488</v>
       </c>
       <c r="M9" t="n">
-        <v>8.699258962942238</v>
+        <v>8.77876283001947</v>
       </c>
       <c r="N9" t="n">
-        <v>132.1510977798099</v>
+        <v>134.8861287461876</v>
       </c>
       <c r="O9" t="n">
-        <v>11.4956990992201</v>
+        <v>11.61404876630831</v>
       </c>
       <c r="P9" t="n">
-        <v>331.469066218493</v>
+        <v>331.6732864391377</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20344,28 +20470,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4930840662286521</v>
+        <v>0.4780547424658464</v>
       </c>
       <c r="J10" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07781453406635508</v>
+        <v>0.07319621473700333</v>
       </c>
       <c r="M10" t="n">
-        <v>9.121912791223579</v>
+        <v>9.19346192526784</v>
       </c>
       <c r="N10" t="n">
-        <v>138.6507536183478</v>
+        <v>140.6794308847512</v>
       </c>
       <c r="O10" t="n">
-        <v>11.7750054614997</v>
+        <v>11.86083601120727</v>
       </c>
       <c r="P10" t="n">
-        <v>329.0755627152546</v>
+        <v>329.229683937243</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20422,28 +20548,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4952570481594031</v>
+        <v>0.4735473253387902</v>
       </c>
       <c r="J11" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08740598551879153</v>
+        <v>0.07994195728396736</v>
       </c>
       <c r="M11" t="n">
-        <v>8.721498498707824</v>
+        <v>8.771668293710267</v>
       </c>
       <c r="N11" t="n">
-        <v>123.1549646457773</v>
+        <v>125.3568154718331</v>
       </c>
       <c r="O11" t="n">
-        <v>11.09752065309082</v>
+        <v>11.19628578912816</v>
       </c>
       <c r="P11" t="n">
-        <v>333.9466985063742</v>
+        <v>334.1700942476096</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20500,28 +20626,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4351782078417834</v>
+        <v>0.4181966168434607</v>
       </c>
       <c r="J12" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07068157733011271</v>
+        <v>0.06496720451999816</v>
       </c>
       <c r="M12" t="n">
-        <v>8.638940747308556</v>
+        <v>8.72032949079677</v>
       </c>
       <c r="N12" t="n">
-        <v>119.8911317515292</v>
+        <v>122.4041180230474</v>
       </c>
       <c r="O12" t="n">
-        <v>10.94948088959149</v>
+        <v>11.063639456483</v>
       </c>
       <c r="P12" t="n">
-        <v>339.9388217868757</v>
+        <v>340.11378253901</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20578,28 +20704,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.339447146009896</v>
+        <v>0.3209873156729109</v>
       </c>
       <c r="J13" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04068508250425473</v>
+        <v>0.03642089778928159</v>
       </c>
       <c r="M13" t="n">
-        <v>8.992798900520677</v>
+        <v>9.043965891949449</v>
       </c>
       <c r="N13" t="n">
-        <v>131.101234935714</v>
+        <v>132.7407985224998</v>
       </c>
       <c r="O13" t="n">
-        <v>11.44994475688481</v>
+        <v>11.52131930477147</v>
       </c>
       <c r="P13" t="n">
-        <v>351.3017684168992</v>
+        <v>351.4935986480057</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20656,28 +20782,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2329319424990327</v>
+        <v>0.2176114492711978</v>
       </c>
       <c r="J14" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01794539786033389</v>
+        <v>0.01569519451924895</v>
       </c>
       <c r="M14" t="n">
-        <v>9.380308137830987</v>
+        <v>9.437866453447409</v>
       </c>
       <c r="N14" t="n">
-        <v>144.7471934510454</v>
+        <v>146.1475158181197</v>
       </c>
       <c r="O14" t="n">
-        <v>12.03109277875644</v>
+        <v>12.08914868045387</v>
       </c>
       <c r="P14" t="n">
-        <v>345.4761263460879</v>
+        <v>345.6335010974798</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20734,28 +20860,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3485619848013155</v>
+        <v>0.3290031965792785</v>
       </c>
       <c r="J15" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03547259218268661</v>
+        <v>0.0317479587642765</v>
       </c>
       <c r="M15" t="n">
-        <v>10.0186346564811</v>
+        <v>10.05489439795483</v>
       </c>
       <c r="N15" t="n">
-        <v>162.7482211437438</v>
+        <v>164.2283901762803</v>
       </c>
       <c r="O15" t="n">
-        <v>12.75728110310907</v>
+        <v>12.81516251072456</v>
       </c>
       <c r="P15" t="n">
-        <v>343.3314683031141</v>
+        <v>343.5301136223847</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20793,7 +20919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P307"/>
+  <dimension ref="A1:P309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44587,6 +44713,166 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.440291287021346,174.4140588768264</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.44005353750864,174.41490983547413</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.43977683211885,174.41575672914746</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.43947962403308,174.41660531287698</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.43913356191413,174.41742012584893</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.438770107166356,174.41820891989047</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-35.43837658612696,174.4189728128</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-35.43794413936715,174.41971603791515</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-35.43744165161136,174.42038670224233</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-35.43694902118758,174.42106208819004</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-35.43633725441624,174.42157873967707</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-35.43576567114158,174.42214015981278</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-35.435110575791725,174.422548334995</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-35.43444213911837,174.42291662957032</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.440632646818095,174.41417760615417</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.440303769334335,174.414996870762</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.44001809171628,174.4158500133284</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.43974927456128,174.41674839627572</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.43943545661432,174.41761981771927</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-35.4390605219143,174.4184188564125</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-35.43821790713955,174.4199722123199</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-35.43768228413804,174.42066447035086</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-35.43714524132846,174.42131260612283</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-35.43656130713618,174.42189537900325</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-35.43590510080022,174.42242000886674</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-35.43521670867617,174.42286921503643</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-35.434539703961185,174.42321701946864</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P309"/>
+  <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16426,7 +16426,9 @@
       <c r="G309" t="n">
         <v>305.44</v>
       </c>
-      <c r="H309" t="inlineStr"/>
+      <c r="H309" t="n">
+        <v>301.78</v>
+      </c>
       <c r="I309" t="n">
         <v>311.71</v>
       </c>
@@ -16449,6 +16451,212 @@
         <v>324.96</v>
       </c>
       <c r="P309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>302.63</v>
+      </c>
+      <c r="C310" t="n">
+        <v>317.18</v>
+      </c>
+      <c r="D310" t="n">
+        <v>329.04</v>
+      </c>
+      <c r="E310" t="n">
+        <v>333.29</v>
+      </c>
+      <c r="F310" t="n">
+        <v>326.64</v>
+      </c>
+      <c r="G310" t="n">
+        <v>328.29</v>
+      </c>
+      <c r="H310" t="n">
+        <v>331.15</v>
+      </c>
+      <c r="I310" t="n">
+        <v>339.17</v>
+      </c>
+      <c r="J310" t="n">
+        <v>337.43</v>
+      </c>
+      <c r="K310" t="n">
+        <v>340.67</v>
+      </c>
+      <c r="L310" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="M310" t="n">
+        <v>361.2888888888889</v>
+      </c>
+      <c r="N310" t="n">
+        <v>343.49</v>
+      </c>
+      <c r="O310" t="n">
+        <v>340.72</v>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>302.63</v>
+      </c>
+      <c r="C311" t="n">
+        <v>307.44</v>
+      </c>
+      <c r="D311" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E311" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="F311" t="n">
+        <v>324.72</v>
+      </c>
+      <c r="G311" t="n">
+        <v>325.76</v>
+      </c>
+      <c r="H311" t="n">
+        <v>324.41</v>
+      </c>
+      <c r="I311" t="n">
+        <v>333.38</v>
+      </c>
+      <c r="J311" t="n">
+        <v>333.57</v>
+      </c>
+      <c r="K311" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="L311" t="n">
+        <v>344.46</v>
+      </c>
+      <c r="M311" t="n">
+        <v>349.9633333333333</v>
+      </c>
+      <c r="N311" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="O311" t="n">
+        <v>340.18</v>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>298.78</v>
+      </c>
+      <c r="C312" t="n">
+        <v>322.21</v>
+      </c>
+      <c r="D312" t="n">
+        <v>331.98</v>
+      </c>
+      <c r="E312" t="n">
+        <v>341.11</v>
+      </c>
+      <c r="F312" t="n">
+        <v>328.91</v>
+      </c>
+      <c r="G312" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="H312" t="n">
+        <v>337.78</v>
+      </c>
+      <c r="I312" t="n">
+        <v>349.26</v>
+      </c>
+      <c r="J312" t="n">
+        <v>345.04</v>
+      </c>
+      <c r="K312" t="n">
+        <v>347.98</v>
+      </c>
+      <c r="L312" t="n">
+        <v>350.87</v>
+      </c>
+      <c r="M312" t="n">
+        <v>363.2155555555556</v>
+      </c>
+      <c r="N312" t="n">
+        <v>351.93</v>
+      </c>
+      <c r="O312" t="n">
+        <v>346.08</v>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="n">
+        <v>317.03</v>
+      </c>
+      <c r="H313" t="n">
+        <v>317.41</v>
+      </c>
+      <c r="I313" t="n">
+        <v>322.09</v>
+      </c>
+      <c r="J313" t="n">
+        <v>324.67</v>
+      </c>
+      <c r="K313" t="n">
+        <v>327.26</v>
+      </c>
+      <c r="L313" t="n">
+        <v>332.44</v>
+      </c>
+      <c r="M313" t="n">
+        <v>340.4277777777777</v>
+      </c>
+      <c r="N313" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="O313" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="P313" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16465,7 +16673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19673,6 +19881,46 @@
       </c>
       <c r="B320" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -19846,28 +20094,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4530666251340011</v>
+        <v>0.4486659893557889</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04917363423608112</v>
+        <v>0.04941228076522464</v>
       </c>
       <c r="M2" t="n">
-        <v>10.77930674048228</v>
+        <v>10.68146908706074</v>
       </c>
       <c r="N2" t="n">
-        <v>195.0103704898385</v>
+        <v>192.9871984843158</v>
       </c>
       <c r="O2" t="n">
-        <v>13.96461136193337</v>
+        <v>13.89198324517834</v>
       </c>
       <c r="P2" t="n">
-        <v>291.6507006375222</v>
+        <v>291.6960712427954</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19924,28 +20172,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5239522977625612</v>
+        <v>0.5307033698063518</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07804572755226913</v>
+        <v>0.08153150865535019</v>
       </c>
       <c r="M3" t="n">
-        <v>9.923615202928126</v>
+        <v>9.882731929764089</v>
       </c>
       <c r="N3" t="n">
-        <v>159.2343906427338</v>
+        <v>158.020132833288</v>
       </c>
       <c r="O3" t="n">
-        <v>12.6188109837153</v>
+        <v>12.57060590557544</v>
       </c>
       <c r="P3" t="n">
-        <v>299.2410458476487</v>
+        <v>299.1714912227131</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20002,28 +20250,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5323527559890612</v>
+        <v>0.5383969541732649</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08524889287543735</v>
+        <v>0.08865912028824585</v>
       </c>
       <c r="M4" t="n">
-        <v>9.610063272023689</v>
+        <v>9.578455726761893</v>
       </c>
       <c r="N4" t="n">
-        <v>151.2667688538532</v>
+        <v>150.1786995640782</v>
       </c>
       <c r="O4" t="n">
-        <v>12.29905560821046</v>
+        <v>12.25474192156156</v>
       </c>
       <c r="P4" t="n">
-        <v>309.7606799324403</v>
+        <v>309.6985273493765</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20080,28 +20328,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5249810816207773</v>
+        <v>0.5301091361922048</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0880891047831881</v>
+        <v>0.09126524448395112</v>
       </c>
       <c r="M5" t="n">
-        <v>9.123517257891168</v>
+        <v>9.09693995584278</v>
       </c>
       <c r="N5" t="n">
-        <v>139.2676689173062</v>
+        <v>138.3686189055041</v>
       </c>
       <c r="O5" t="n">
-        <v>11.80117235351243</v>
+        <v>11.76301912374133</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0973144120903</v>
+        <v>317.043694075559</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20158,28 +20406,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4667356018003912</v>
+        <v>0.4602961767107798</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06427399053942573</v>
+        <v>0.06395254830099273</v>
       </c>
       <c r="M6" t="n">
-        <v>9.543368092780169</v>
+        <v>9.476196620621346</v>
       </c>
       <c r="N6" t="n">
-        <v>155.0364542875642</v>
+        <v>153.5611873567422</v>
       </c>
       <c r="O6" t="n">
-        <v>12.45136355133703</v>
+        <v>12.3919807680912</v>
       </c>
       <c r="P6" t="n">
-        <v>317.7652821551413</v>
+        <v>317.8324504701748</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20236,28 +20484,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3965591630108775</v>
+        <v>0.3844696658329417</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05495720921991221</v>
+        <v>0.0530694235044018</v>
       </c>
       <c r="M7" t="n">
-        <v>8.993826069758544</v>
+        <v>8.967571726917337</v>
       </c>
       <c r="N7" t="n">
-        <v>132.801761729708</v>
+        <v>131.867680570762</v>
       </c>
       <c r="O7" t="n">
-        <v>11.52396467062044</v>
+        <v>11.48336538523276</v>
       </c>
       <c r="P7" t="n">
-        <v>320.8900495972148</v>
+        <v>321.0150496243311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20314,28 +20562,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4162006649919428</v>
+        <v>0.3722099380330631</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06141251110589918</v>
+        <v>0.04987944022583957</v>
       </c>
       <c r="M8" t="n">
-        <v>8.718168888124662</v>
+        <v>8.782093846572431</v>
       </c>
       <c r="N8" t="n">
-        <v>128.9071980268062</v>
+        <v>131.6145973953017</v>
       </c>
       <c r="O8" t="n">
-        <v>11.35373057751531</v>
+        <v>11.47234053693063</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6529490082644</v>
+        <v>324.1039520623873</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20392,28 +20640,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4294744308424386</v>
+        <v>0.4083120537876151</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06199355646381488</v>
+        <v>0.05747264967524535</v>
       </c>
       <c r="M9" t="n">
-        <v>8.77876283001947</v>
+        <v>8.799701631744581</v>
       </c>
       <c r="N9" t="n">
-        <v>134.8861287461876</v>
+        <v>134.951439461097</v>
       </c>
       <c r="O9" t="n">
-        <v>11.61404876630831</v>
+        <v>11.61686013779528</v>
       </c>
       <c r="P9" t="n">
-        <v>331.6732864391377</v>
+        <v>331.8896537638217</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20470,28 +20718,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4780547424658464</v>
+        <v>0.4588477835168209</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K10" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07319621473700333</v>
+        <v>0.06939623759096036</v>
       </c>
       <c r="M10" t="n">
-        <v>9.19346192526784</v>
+        <v>9.184233898144802</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6794308847512</v>
+        <v>139.9962590714786</v>
       </c>
       <c r="O10" t="n">
-        <v>11.86083601120727</v>
+        <v>11.83200148206036</v>
       </c>
       <c r="P10" t="n">
-        <v>329.229683937243</v>
+        <v>329.4267619400798</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20548,28 +20796,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4735473253387902</v>
+        <v>0.4480497395205628</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07994195728396736</v>
+        <v>0.0734655343221442</v>
       </c>
       <c r="M11" t="n">
-        <v>8.771668293710267</v>
+        <v>8.780069119637638</v>
       </c>
       <c r="N11" t="n">
-        <v>125.3568154718331</v>
+        <v>125.3569129868331</v>
       </c>
       <c r="O11" t="n">
-        <v>11.19628578912816</v>
+        <v>11.19629014391969</v>
       </c>
       <c r="P11" t="n">
-        <v>334.1700942476096</v>
+        <v>334.4330632572426</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20626,28 +20874,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4181966168434607</v>
+        <v>0.3954776253891322</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K12" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06496720451999816</v>
+        <v>0.05970919590880253</v>
       </c>
       <c r="M12" t="n">
-        <v>8.72032949079677</v>
+        <v>8.71379938735395</v>
       </c>
       <c r="N12" t="n">
-        <v>122.4041180230474</v>
+        <v>122.0868646875743</v>
       </c>
       <c r="O12" t="n">
-        <v>11.063639456483</v>
+        <v>11.04929249714995</v>
       </c>
       <c r="P12" t="n">
-        <v>340.11378253901</v>
+        <v>340.3480933229202</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20704,28 +20952,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3209873156729109</v>
+        <v>0.3035784579665068</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K13" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03642089778928159</v>
+        <v>0.03330996765135119</v>
       </c>
       <c r="M13" t="n">
-        <v>9.043965891949449</v>
+        <v>9.047761232993214</v>
       </c>
       <c r="N13" t="n">
-        <v>132.7407985224998</v>
+        <v>132.5538225816261</v>
       </c>
       <c r="O13" t="n">
-        <v>11.52131930477147</v>
+        <v>11.51320209939989</v>
       </c>
       <c r="P13" t="n">
-        <v>351.4935986480057</v>
+        <v>351.6750043589672</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20782,28 +21030,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2176114492711978</v>
+        <v>0.1969343653830635</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K14" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01569519451924895</v>
+        <v>0.01321484351466429</v>
       </c>
       <c r="M14" t="n">
-        <v>9.437866453447409</v>
+        <v>9.425911055541532</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1475158181197</v>
+        <v>145.1356984796905</v>
       </c>
       <c r="O14" t="n">
-        <v>12.08914868045387</v>
+        <v>12.04722783380851</v>
       </c>
       <c r="P14" t="n">
-        <v>345.6335010974798</v>
+        <v>345.8461333934471</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20860,28 +21108,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3290031965792785</v>
+        <v>0.2983098426313285</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K15" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0317479587642765</v>
+        <v>0.02685889581021261</v>
       </c>
       <c r="M15" t="n">
-        <v>10.05489439795483</v>
+        <v>10.05747510694913</v>
       </c>
       <c r="N15" t="n">
-        <v>164.2283901762803</v>
+        <v>163.4435790222509</v>
       </c>
       <c r="O15" t="n">
-        <v>12.81516251072456</v>
+        <v>12.7845054273621</v>
       </c>
       <c r="P15" t="n">
-        <v>343.5301136223847</v>
+        <v>343.8424262305218</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20919,7 +21167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P309"/>
+  <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44831,7 +45079,11 @@
           <t>-35.4390605219143,174.4184188564125</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-35.43869979523074,174.4192200823802</t>
+        </is>
+      </c>
       <c r="I309" t="inlineStr">
         <is>
           <t>-35.43821790713955,174.4199722123199</t>
@@ -44868,6 +45120,314 @@
         </is>
       </c>
       <c r="P309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.44043903331813,174.41411026475316</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.440119346926366,174.4149327251574</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.43982066625294,174.41577367777992</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.439542054639595,174.416638440041</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.43925184633246,174.4174983662852</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.438883231635145,174.41829069567655</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-35.43847538272904,174.41904839640932</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-35.43802136698998,174.419788302361</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-35.43752795698387,174.42048632639793</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-35.43699795161134,174.4211245583995</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-35.43641909272225,174.42169439615463</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-35.435771827749505,174.42215251668244</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-35.43515651502157,174.42268722631934</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-35.43448729703792,174.42305566475284</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.44043903331813,174.41411026475316</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.440203798001875,174.41496209880012</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.43991985171348,174.41581202828561</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.43961680597396,174.41667810495278</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.439267067915566,174.4175084347765</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-35.43890286159487,174.41830488587436</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-35.43852688225149,174.41908779582826</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-35.43806280792837,174.41982708009604</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-35.43755325223955,174.42051552531763</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-35.437030177107246,174.42116570124114</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-35.43642451715913,174.4217020621542</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-35.43582491932318,174.42225907646554</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-35.43515813640315,174.42269212836885</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-35.43448909271026,174.4230611934009</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.44047241495969,174.4141218753155</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.44007573409815,174.41491755583723</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.43979539716427,174.41576390738945</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.43947739141516,174.41660412819792</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.43923384998035,174.4174864623968</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.43881875535095,174.41824408681524</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-35.43842472368915,174.41900964005725</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-35.43794914950166,174.4197207260585</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-35.437478087299525,174.4204287607057</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-35.43695238710318,174.4210663855014</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-35.43638672297402,174.4216486501569</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-35.43576279597398,174.42213438909255</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-35.43512800569528,174.42260103197947</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-35.434469473313136,174.4230007878145</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-35.43897059657972,174.41835385052366</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-35.438580368387086,174.41912871515996</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-35.438143614140266,174.4199026934458</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-35.43761157546851,174.4205828493214</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-35.437081538408314,174.42123127519955</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-35.43649538855885,174.42180222019897</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-35.43586961971681,174.42234879462004</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-35.43517468799519,174.4227421701355</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-35.43449102139508,174.42306713157873</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P313"/>
+  <dimension ref="A1:P316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16662,6 +16662,168 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>286.81</v>
+      </c>
+      <c r="C314" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="D314" t="n">
+        <v>320.49</v>
+      </c>
+      <c r="E314" t="n">
+        <v>330.44</v>
+      </c>
+      <c r="F314" t="n">
+        <v>330.16</v>
+      </c>
+      <c r="G314" t="n">
+        <v>330.3</v>
+      </c>
+      <c r="H314" t="n">
+        <v>333.71</v>
+      </c>
+      <c r="I314" t="n">
+        <v>343.66</v>
+      </c>
+      <c r="J314" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="K314" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="L314" t="n">
+        <v>349.08</v>
+      </c>
+      <c r="M314" t="n">
+        <v>360.4688888888889</v>
+      </c>
+      <c r="N314" t="n">
+        <v>345.85</v>
+      </c>
+      <c r="O314" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>299.44</v>
+      </c>
+      <c r="C315" t="n">
+        <v>302.98</v>
+      </c>
+      <c r="D315" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="E315" t="n">
+        <v>322.51</v>
+      </c>
+      <c r="F315" t="n">
+        <v>323.13</v>
+      </c>
+      <c r="G315" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="H315" t="n">
+        <v>323.91</v>
+      </c>
+      <c r="I315" t="n">
+        <v>332.58</v>
+      </c>
+      <c r="J315" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="K315" t="n">
+        <v>330.85</v>
+      </c>
+      <c r="L315" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="M315" t="n">
+        <v>343.0222222222222</v>
+      </c>
+      <c r="N315" t="n">
+        <v>338.54</v>
+      </c>
+      <c r="O315" t="n">
+        <v>336.69</v>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>286.74</v>
+      </c>
+      <c r="C316" t="n">
+        <v>290.81</v>
+      </c>
+      <c r="D316" t="n">
+        <v>303.16</v>
+      </c>
+      <c r="E316" t="n">
+        <v>312.71</v>
+      </c>
+      <c r="F316" t="n">
+        <v>314.82</v>
+      </c>
+      <c r="G316" t="n">
+        <v>314.37</v>
+      </c>
+      <c r="H316" t="n">
+        <v>315.39</v>
+      </c>
+      <c r="I316" t="n">
+        <v>323.38</v>
+      </c>
+      <c r="J316" t="n">
+        <v>323.63</v>
+      </c>
+      <c r="K316" t="n">
+        <v>326.68</v>
+      </c>
+      <c r="L316" t="n">
+        <v>336.33</v>
+      </c>
+      <c r="M316" t="n">
+        <v>341.7477777777778</v>
+      </c>
+      <c r="N316" t="n">
+        <v>337.99</v>
+      </c>
+      <c r="O316" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16673,7 +16835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19921,6 +20083,36 @@
       </c>
       <c r="B324" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -20094,28 +20286,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4486659893557889</v>
+        <v>0.4211372974684207</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04941228076522464</v>
+        <v>0.04440211065819</v>
       </c>
       <c r="M2" t="n">
-        <v>10.68146908706074</v>
+        <v>10.68208859547373</v>
       </c>
       <c r="N2" t="n">
-        <v>192.9871984843158</v>
+        <v>192.8571877643548</v>
       </c>
       <c r="O2" t="n">
-        <v>13.89198324517834</v>
+        <v>13.8873031134326</v>
       </c>
       <c r="P2" t="n">
-        <v>291.6960712427954</v>
+        <v>291.9814053802024</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20172,28 +20364,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5307033698063518</v>
+        <v>0.5087191996284067</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08153150865535019</v>
+        <v>0.07621861651269257</v>
       </c>
       <c r="M3" t="n">
-        <v>9.882731929764089</v>
+        <v>9.911147567753384</v>
       </c>
       <c r="N3" t="n">
-        <v>158.020132833288</v>
+        <v>158.3955327215144</v>
       </c>
       <c r="O3" t="n">
-        <v>12.57060590557544</v>
+        <v>12.58552870250251</v>
       </c>
       <c r="P3" t="n">
-        <v>299.1714912227131</v>
+        <v>299.3994571724451</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20250,28 +20442,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5383969541732649</v>
+        <v>0.5156872388826375</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08865912028824585</v>
+        <v>0.08284867913467842</v>
       </c>
       <c r="M4" t="n">
-        <v>9.578455726761893</v>
+        <v>9.591297458206679</v>
       </c>
       <c r="N4" t="n">
-        <v>150.1786995640782</v>
+        <v>150.2976778975142</v>
       </c>
       <c r="O4" t="n">
-        <v>12.25474192156156</v>
+        <v>12.2595953398762</v>
       </c>
       <c r="P4" t="n">
-        <v>309.6985273493765</v>
+        <v>309.9335640653298</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20328,28 +20520,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5301091361922048</v>
+        <v>0.5111207904302579</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09126524448395112</v>
+        <v>0.08645001532494434</v>
       </c>
       <c r="M5" t="n">
-        <v>9.09693995584278</v>
+        <v>9.090953228097922</v>
       </c>
       <c r="N5" t="n">
-        <v>138.3686189055041</v>
+        <v>138.2615602793536</v>
       </c>
       <c r="O5" t="n">
-        <v>11.76301912374133</v>
+        <v>11.75846759911144</v>
       </c>
       <c r="P5" t="n">
-        <v>317.043694075559</v>
+        <v>317.2434025774375</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20406,28 +20598,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4602961767107798</v>
+        <v>0.4453956607991346</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06395254830099273</v>
+        <v>0.06109267117926287</v>
       </c>
       <c r="M6" t="n">
-        <v>9.476196620621346</v>
+        <v>9.454161537646206</v>
       </c>
       <c r="N6" t="n">
-        <v>153.5611873567422</v>
+        <v>152.8814084438568</v>
       </c>
       <c r="O6" t="n">
-        <v>12.3919807680912</v>
+        <v>12.36452216803613</v>
       </c>
       <c r="P6" t="n">
-        <v>317.8324504701748</v>
+        <v>317.9890003142663</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20484,28 +20676,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3844696658329417</v>
+        <v>0.3666590224985138</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0530694235044018</v>
+        <v>0.0491809699100576</v>
       </c>
       <c r="M7" t="n">
-        <v>8.967571726917337</v>
+        <v>8.963808394520735</v>
       </c>
       <c r="N7" t="n">
-        <v>131.867680570762</v>
+        <v>131.6353019897565</v>
       </c>
       <c r="O7" t="n">
-        <v>11.48336538523276</v>
+        <v>11.473242871558</v>
       </c>
       <c r="P7" t="n">
-        <v>321.0150496243311</v>
+        <v>321.2002581718465</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20562,28 +20754,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3722099380330631</v>
+        <v>0.3516799520146249</v>
       </c>
       <c r="J8" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04987944022583957</v>
+        <v>0.04532615598495215</v>
       </c>
       <c r="M8" t="n">
-        <v>8.782093846572431</v>
+        <v>8.784509528532114</v>
       </c>
       <c r="N8" t="n">
-        <v>131.6145973953017</v>
+        <v>131.7089335655171</v>
       </c>
       <c r="O8" t="n">
-        <v>11.47234053693063</v>
+        <v>11.47645126184559</v>
       </c>
       <c r="P8" t="n">
-        <v>324.1039520623873</v>
+        <v>324.3159687397319</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20640,28 +20832,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4083120537876151</v>
+        <v>0.3870519723761223</v>
       </c>
       <c r="J9" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05747264967524535</v>
+        <v>0.05263141883376077</v>
       </c>
       <c r="M9" t="n">
-        <v>8.799701631744581</v>
+        <v>8.816726687682349</v>
       </c>
       <c r="N9" t="n">
-        <v>134.951439461097</v>
+        <v>135.1171768098248</v>
       </c>
       <c r="O9" t="n">
-        <v>11.61686013779528</v>
+        <v>11.62399143194044</v>
       </c>
       <c r="P9" t="n">
-        <v>331.8896537638217</v>
+        <v>332.1082247850412</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20718,28 +20910,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4588477835168209</v>
+        <v>0.4386855430277817</v>
       </c>
       <c r="J10" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06939623759096036</v>
+        <v>0.0646980879397413</v>
       </c>
       <c r="M10" t="n">
-        <v>9.184233898144802</v>
+        <v>9.191569695839584</v>
       </c>
       <c r="N10" t="n">
-        <v>139.9962590714786</v>
+        <v>139.918911612849</v>
       </c>
       <c r="O10" t="n">
-        <v>11.83200148206036</v>
+        <v>11.82873246010954</v>
       </c>
       <c r="P10" t="n">
-        <v>329.4267619400798</v>
+        <v>329.6348134755907</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20796,28 +20988,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4480497395205628</v>
+        <v>0.4214751770080829</v>
       </c>
       <c r="J11" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0734655343221442</v>
+        <v>0.06605228410256991</v>
       </c>
       <c r="M11" t="n">
-        <v>8.780069119637638</v>
+        <v>8.812794461829739</v>
       </c>
       <c r="N11" t="n">
-        <v>125.3569129868331</v>
+        <v>126.0931499378918</v>
       </c>
       <c r="O11" t="n">
-        <v>11.19629014391969</v>
+        <v>11.22912062175359</v>
       </c>
       <c r="P11" t="n">
-        <v>334.4330632572426</v>
+        <v>334.7086631822661</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20874,28 +21066,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3954776253891322</v>
+        <v>0.3759163274691394</v>
       </c>
       <c r="J12" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05970919590880253</v>
+        <v>0.05504550936889863</v>
       </c>
       <c r="M12" t="n">
-        <v>8.71379938735395</v>
+        <v>8.723803958061605</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0868646875743</v>
+        <v>121.9117375922117</v>
       </c>
       <c r="O12" t="n">
-        <v>11.04929249714995</v>
+        <v>11.04136484281775</v>
       </c>
       <c r="P12" t="n">
-        <v>340.3480933229202</v>
+        <v>340.5509360563411</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20952,28 +21144,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3035784579665068</v>
+        <v>0.2799690712724941</v>
       </c>
       <c r="J13" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03330996765135119</v>
+        <v>0.02869916568335262</v>
       </c>
       <c r="M13" t="n">
-        <v>9.047761232993214</v>
+        <v>9.088410432666285</v>
       </c>
       <c r="N13" t="n">
-        <v>132.5538225816261</v>
+        <v>133.1553006003851</v>
       </c>
       <c r="O13" t="n">
-        <v>11.51320209939989</v>
+        <v>11.53929376523473</v>
       </c>
       <c r="P13" t="n">
-        <v>351.6750043589672</v>
+        <v>351.9222983664625</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21030,28 +21222,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1969343653830635</v>
+        <v>0.1752113369621318</v>
       </c>
       <c r="J14" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01321484351466429</v>
+        <v>0.01065070506631416</v>
       </c>
       <c r="M14" t="n">
-        <v>9.425911055541532</v>
+        <v>9.445698690468044</v>
       </c>
       <c r="N14" t="n">
-        <v>145.1356984796905</v>
+        <v>144.7978216774581</v>
       </c>
       <c r="O14" t="n">
-        <v>12.04722783380851</v>
+        <v>12.0331966524884</v>
       </c>
       <c r="P14" t="n">
-        <v>345.8461333934471</v>
+        <v>346.0707813172343</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21108,28 +21300,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2983098426313285</v>
+        <v>0.268253245465017</v>
       </c>
       <c r="J15" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02685889581021261</v>
+        <v>0.02206864067065928</v>
       </c>
       <c r="M15" t="n">
-        <v>10.05747510694913</v>
+        <v>10.09126440781389</v>
       </c>
       <c r="N15" t="n">
-        <v>163.4435790222509</v>
+        <v>163.8476922818453</v>
       </c>
       <c r="O15" t="n">
-        <v>12.7845054273621</v>
+        <v>12.80030047623278</v>
       </c>
       <c r="P15" t="n">
-        <v>343.8424262305218</v>
+        <v>344.150043000047</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21167,7 +21359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P313"/>
+  <dimension ref="A1:P316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45433,6 +45625,252 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.44057620150832,174.41415797367327</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.44013478049121,174.41493809323103</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.439894152882516,174.41580209170672</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.43956562115709,174.4166509450106</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.439223940094244,174.4174799073945</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-35.438867636290304,174.4182794220461</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-35.43845582207577,174.41903343165816</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-35.43798923057067,174.41975823122624</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-35.43750108895786,174.4204553120214</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-35.436975013531615,174.42109527299255</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-35.43639727704696,174.42166356551462</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-35.43577567172233,174.4221602318863</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-35.43514854322578,174.42266312457855</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-35.43447791963366,174.42302679292789</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.44046669239267,174.41411988493266</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.4402424686143,174.4149755491754</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.43993944814574,174.41581960534685</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.43963119395025,174.4166857395794</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.43927967328835,174.41751677274877</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.438922724319,174.41831924434248</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-35.438530702690265,174.41909071863583</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-35.43806853379096,174.41983243799004</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-35.437566817308756,174.42053118381318</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-35.43705916134128,174.4212027059526</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-35.43645305440553,174.4217423919948</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-35.4358574575914,174.42232438399617</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-35.43517323550941,174.42273777871435</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-35.434500698067886,174.42309692485438</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.44057680844716,174.4141581847751</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.44034798908676,174.4150122512769</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.440043102948096,174.41585968407642</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.439712229667904,174.4167287392527</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-35.439345554188165,174.4175603504961</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-35.43899123518461,174.41836876989498</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-35.43859580295475,174.41914052332018</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-35.43813438119219,174.41989405382594</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-35.437618390764534,174.42059071640233</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-35.437085153644105,174.4212358908454</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-35.43647245264961,174.42176980630344</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-35.43586343187807,174.4223363749955</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-35.43517509334004,174.4227433956484</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-35.43451283546469,174.42313429443675</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P316"/>
+  <dimension ref="A1:P319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16824,6 +16824,168 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>285.81</v>
+      </c>
+      <c r="C317" t="n">
+        <v>292.63</v>
+      </c>
+      <c r="D317" t="n">
+        <v>302.71</v>
+      </c>
+      <c r="E317" t="n">
+        <v>309.02</v>
+      </c>
+      <c r="F317" t="n">
+        <v>307.19</v>
+      </c>
+      <c r="G317" t="n">
+        <v>308.87</v>
+      </c>
+      <c r="H317" t="n">
+        <v>310</v>
+      </c>
+      <c r="I317" t="n">
+        <v>320.73</v>
+      </c>
+      <c r="J317" t="n">
+        <v>319.55</v>
+      </c>
+      <c r="K317" t="n">
+        <v>322.25</v>
+      </c>
+      <c r="L317" t="n">
+        <v>329.52</v>
+      </c>
+      <c r="M317" t="n">
+        <v>347.6888888888889</v>
+      </c>
+      <c r="N317" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="O317" t="n">
+        <v>327.33</v>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>285.55</v>
+      </c>
+      <c r="C318" t="n">
+        <v>290.65</v>
+      </c>
+      <c r="D318" t="n">
+        <v>303.41</v>
+      </c>
+      <c r="E318" t="n">
+        <v>313.36</v>
+      </c>
+      <c r="F318" t="n">
+        <v>312.11</v>
+      </c>
+      <c r="G318" t="n">
+        <v>316.27</v>
+      </c>
+      <c r="H318" t="n">
+        <v>317.16</v>
+      </c>
+      <c r="I318" t="n">
+        <v>321.51</v>
+      </c>
+      <c r="J318" t="n">
+        <v>320.64</v>
+      </c>
+      <c r="K318" t="n">
+        <v>326.26</v>
+      </c>
+      <c r="L318" t="n">
+        <v>327.32</v>
+      </c>
+      <c r="M318" t="n">
+        <v>340.7566666666667</v>
+      </c>
+      <c r="N318" t="n">
+        <v>334.77</v>
+      </c>
+      <c r="O318" t="n">
+        <v>329.48</v>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>272.09</v>
+      </c>
+      <c r="C319" t="n">
+        <v>281.43</v>
+      </c>
+      <c r="D319" t="n">
+        <v>289.91</v>
+      </c>
+      <c r="E319" t="n">
+        <v>301.48</v>
+      </c>
+      <c r="F319" t="n">
+        <v>299.64</v>
+      </c>
+      <c r="G319" t="n">
+        <v>300.76</v>
+      </c>
+      <c r="H319" t="n">
+        <v>301.04</v>
+      </c>
+      <c r="I319" t="n">
+        <v>309.95</v>
+      </c>
+      <c r="J319" t="n">
+        <v>310.49</v>
+      </c>
+      <c r="K319" t="n">
+        <v>313.29</v>
+      </c>
+      <c r="L319" t="n">
+        <v>319.45</v>
+      </c>
+      <c r="M319" t="n">
+        <v>331.7844444444444</v>
+      </c>
+      <c r="N319" t="n">
+        <v>320.72</v>
+      </c>
+      <c r="O319" t="n">
+        <v>317.54</v>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16835,7 +16997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20113,6 +20275,36 @@
       </c>
       <c r="B327" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -20286,28 +20478,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4211372974684207</v>
+        <v>0.3735434140802555</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04440211065819</v>
+        <v>0.03515848396581711</v>
       </c>
       <c r="M2" t="n">
-        <v>10.68208859547373</v>
+        <v>10.77827099916987</v>
       </c>
       <c r="N2" t="n">
-        <v>192.8571877643548</v>
+        <v>196.0600507496837</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8873031134326</v>
+        <v>14.00214450538501</v>
       </c>
       <c r="P2" t="n">
-        <v>291.9814053802024</v>
+        <v>292.4769001961892</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20364,28 +20556,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5087191996284067</v>
+        <v>0.4555196373821049</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07621861651269257</v>
+        <v>0.06116840824513703</v>
       </c>
       <c r="M3" t="n">
-        <v>9.911147567753384</v>
+        <v>10.08900396106475</v>
       </c>
       <c r="N3" t="n">
-        <v>158.3955327215144</v>
+        <v>162.9799775702643</v>
       </c>
       <c r="O3" t="n">
-        <v>12.58552870250251</v>
+        <v>12.76636117185568</v>
       </c>
       <c r="P3" t="n">
-        <v>299.3994571724451</v>
+        <v>299.952931264493</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20442,28 +20634,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5156872388826375</v>
+        <v>0.4643409864970355</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08284867913467842</v>
+        <v>0.06703357565328838</v>
       </c>
       <c r="M4" t="n">
-        <v>9.591297458206679</v>
+        <v>9.747269228630206</v>
       </c>
       <c r="N4" t="n">
-        <v>150.2976778975142</v>
+        <v>155.1152935230806</v>
       </c>
       <c r="O4" t="n">
-        <v>12.2595953398762</v>
+        <v>12.45452903658266</v>
       </c>
       <c r="P4" t="n">
-        <v>309.9335640653298</v>
+        <v>310.4669890194509</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20520,28 +20712,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5111207904302579</v>
+        <v>0.4638225432965513</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08645001532494434</v>
+        <v>0.07129066854960431</v>
       </c>
       <c r="M5" t="n">
-        <v>9.090953228097922</v>
+        <v>9.225730716075883</v>
       </c>
       <c r="N5" t="n">
-        <v>138.2615602793536</v>
+        <v>142.0887449211284</v>
       </c>
       <c r="O5" t="n">
-        <v>11.75846759911144</v>
+        <v>11.92009836037977</v>
       </c>
       <c r="P5" t="n">
-        <v>317.2434025774375</v>
+        <v>317.7426152807016</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20598,28 +20790,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4453956607991346</v>
+        <v>0.3971481051596276</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06109267117926287</v>
+        <v>0.04856259534915941</v>
       </c>
       <c r="M6" t="n">
-        <v>9.454161537646206</v>
+        <v>9.589444096350483</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8814084438568</v>
+        <v>156.8519489973144</v>
       </c>
       <c r="O6" t="n">
-        <v>12.36452216803613</v>
+        <v>12.5240548145285</v>
       </c>
       <c r="P6" t="n">
-        <v>317.9890003142663</v>
+        <v>318.4976511340981</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20676,28 +20868,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3666590224985138</v>
+        <v>0.3204941516267035</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0491809699100576</v>
+        <v>0.03742534493129446</v>
       </c>
       <c r="M7" t="n">
-        <v>8.963808394520735</v>
+        <v>9.101282824114929</v>
       </c>
       <c r="N7" t="n">
-        <v>131.6353019897565</v>
+        <v>135.4773381443981</v>
       </c>
       <c r="O7" t="n">
-        <v>11.473242871558</v>
+        <v>11.63947327607217</v>
       </c>
       <c r="P7" t="n">
-        <v>321.2002581718465</v>
+        <v>321.6820374019673</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20754,28 +20946,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3516799520146249</v>
+        <v>0.3003450270220498</v>
       </c>
       <c r="J8" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04532615598495215</v>
+        <v>0.03274873677769619</v>
       </c>
       <c r="M8" t="n">
-        <v>8.784509528532114</v>
+        <v>8.937807507930485</v>
       </c>
       <c r="N8" t="n">
-        <v>131.7089335655171</v>
+        <v>136.4980460729446</v>
       </c>
       <c r="O8" t="n">
-        <v>11.47645126184559</v>
+        <v>11.68323782489018</v>
       </c>
       <c r="P8" t="n">
-        <v>324.3159687397319</v>
+        <v>324.8479757843872</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20832,28 +21024,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3870519723761223</v>
+        <v>0.3315216341233579</v>
       </c>
       <c r="J9" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05263141883376077</v>
+        <v>0.03833017789121229</v>
       </c>
       <c r="M9" t="n">
-        <v>8.816726687682349</v>
+        <v>8.995747298397244</v>
       </c>
       <c r="N9" t="n">
-        <v>135.1171768098248</v>
+        <v>140.1801225457748</v>
       </c>
       <c r="O9" t="n">
-        <v>11.62399143194044</v>
+        <v>11.83976868632892</v>
       </c>
       <c r="P9" t="n">
-        <v>332.1082247850412</v>
+        <v>332.6810122225607</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20910,28 +21102,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4386855430277817</v>
+        <v>0.3863060669077772</v>
       </c>
       <c r="J10" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0646980879397413</v>
+        <v>0.05003520417508356</v>
       </c>
       <c r="M10" t="n">
-        <v>9.191569695839584</v>
+        <v>9.370054172796083</v>
       </c>
       <c r="N10" t="n">
-        <v>139.918911612849</v>
+        <v>144.4553231669829</v>
       </c>
       <c r="O10" t="n">
-        <v>11.82873246010954</v>
+        <v>12.01895682523999</v>
       </c>
       <c r="P10" t="n">
-        <v>329.6348134755907</v>
+        <v>330.1771775925124</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20988,28 +21180,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4214751770080829</v>
+        <v>0.3675615214703332</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06605228410256991</v>
+        <v>0.04974395709316914</v>
       </c>
       <c r="M11" t="n">
-        <v>8.812794461829739</v>
+        <v>8.978711038349115</v>
       </c>
       <c r="N11" t="n">
-        <v>126.0931499378918</v>
+        <v>131.2951877152264</v>
       </c>
       <c r="O11" t="n">
-        <v>11.22912062175359</v>
+        <v>11.45841122124819</v>
       </c>
       <c r="P11" t="n">
-        <v>334.7086631822661</v>
+        <v>335.2698833220238</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21066,28 +21258,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3759163274691394</v>
+        <v>0.3224470393889378</v>
       </c>
       <c r="J12" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05504550936889863</v>
+        <v>0.040032683199137</v>
       </c>
       <c r="M12" t="n">
-        <v>8.723803958061605</v>
+        <v>8.912310288115101</v>
       </c>
       <c r="N12" t="n">
-        <v>121.9117375922117</v>
+        <v>126.9652242501002</v>
       </c>
       <c r="O12" t="n">
-        <v>11.04136484281775</v>
+        <v>11.26788463954527</v>
       </c>
       <c r="P12" t="n">
-        <v>340.5509360563411</v>
+        <v>341.107483806593</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21144,28 +21336,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2799690712724941</v>
+        <v>0.2402665606308326</v>
       </c>
       <c r="J13" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02869916568335262</v>
+        <v>0.02114652005484507</v>
       </c>
       <c r="M13" t="n">
-        <v>9.088410432666285</v>
+        <v>9.206374442941815</v>
       </c>
       <c r="N13" t="n">
-        <v>133.1553006003851</v>
+        <v>135.7840563283072</v>
       </c>
       <c r="O13" t="n">
-        <v>11.53929376523473</v>
+        <v>11.65264160301462</v>
       </c>
       <c r="P13" t="n">
-        <v>351.9222983664625</v>
+        <v>352.3397870559163</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21222,28 +21414,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1752113369621318</v>
+        <v>0.1293268596765901</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01065070506631416</v>
+        <v>0.005763221259753037</v>
       </c>
       <c r="M14" t="n">
-        <v>9.445698690468044</v>
+        <v>9.59255028673001</v>
       </c>
       <c r="N14" t="n">
-        <v>144.7978216774581</v>
+        <v>148.3762195616024</v>
       </c>
       <c r="O14" t="n">
-        <v>12.0331966524884</v>
+        <v>12.18097777526921</v>
       </c>
       <c r="P14" t="n">
-        <v>346.0707813172343</v>
+        <v>346.5472779956738</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21300,28 +21492,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.268253245465017</v>
+        <v>0.2122472144205688</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02206864067065928</v>
+        <v>0.01365964299996592</v>
       </c>
       <c r="M15" t="n">
-        <v>10.09126440781389</v>
+        <v>10.2487305751099</v>
       </c>
       <c r="N15" t="n">
-        <v>163.8476922818453</v>
+        <v>169.3343940475349</v>
       </c>
       <c r="O15" t="n">
-        <v>12.80030047623278</v>
+        <v>13.01285495375764</v>
       </c>
       <c r="P15" t="n">
-        <v>344.150043000047</v>
+        <v>344.7256270143086</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21359,7 +21551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P316"/>
+  <dimension ref="A1:P319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45871,6 +46063,252 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.44058487206312,174.4141609894135</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.440332208704824,174.4150067625421</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.44004697066426,174.41586117955347</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.439742742091525,174.41674492996898</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-35.43940604409588,174.41760036237835</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-35.43903390898507,174.41839961824374</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-35.43863698726507,174.4191720312552</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-35.43815334810027,174.4199118018844</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-35.437645127689805,174.4206215795789</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-35.437112766559444,174.42127114484362</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-35.43651260522503,174.4218265514642</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-35.43583558137862,174.42228047625417</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-35.435200055802135,174.4228188668409</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-35.43453182298495,174.42319275481887</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.440587126407344,174.41416177350604</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.44034937637307,174.41501273380314</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.44004095421688,174.4158588532559</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.43970685485046,174.41672588723083</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-35.43936703880983,174.41757456178672</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-35.43897649332419,174.4183581132004</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-35.43858227860593,174.4191301765657</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-35.438147765387995,174.4199065779267</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-35.43763798473756,174.42061333426747</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-35.43708777157335,174.4212392332099</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-35.43652557668244,174.4218448832462</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-35.435868077965864,174.42234570016794</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-35.435185970088604,174.42277628024905</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-35.434524673571794,174.42317074258779</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.440703832064315,174.41420236543752</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.4404293187421,174.41504053940704</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.44015698569179,174.4159037176298</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-35.43980508996259,174.416778013477</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-35.439465899756286,174.41763995479891</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-35.43909683342728,174.4184451055965</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-35.43870544947477,174.41922440815426</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-35.438230504021405,174.41998399973326</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-35.43770449936116,174.42069011405877</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-35.43716861567297,174.42134244871485</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-35.43657197909905,174.4219104610779</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-35.43591013752711,174.42243011811667</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-35.435233429085876,174.4229197675045</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-35.43456437770261,174.42329298730485</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P319"/>
+  <dimension ref="A1:P320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16986,6 +16986,60 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>280.36</v>
+      </c>
+      <c r="C320" t="n">
+        <v>293.67</v>
+      </c>
+      <c r="D320" t="n">
+        <v>299.16</v>
+      </c>
+      <c r="E320" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="F320" t="n">
+        <v>311.24</v>
+      </c>
+      <c r="G320" t="n">
+        <v>310.28</v>
+      </c>
+      <c r="H320" t="n">
+        <v>314.86</v>
+      </c>
+      <c r="I320" t="n">
+        <v>323.14</v>
+      </c>
+      <c r="J320" t="n">
+        <v>320.84</v>
+      </c>
+      <c r="K320" t="n">
+        <v>320.29</v>
+      </c>
+      <c r="L320" t="n">
+        <v>325.68</v>
+      </c>
+      <c r="M320" t="n">
+        <v>343.0122222222222</v>
+      </c>
+      <c r="N320" t="n">
+        <v>330.81</v>
+      </c>
+      <c r="O320" t="n">
+        <v>329.68</v>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16997,7 +17051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20305,6 +20359,16 @@
       </c>
       <c r="B330" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -20478,28 +20542,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3735434140802555</v>
+        <v>0.3576344182726204</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03515848396581711</v>
+        <v>0.03230620342298784</v>
       </c>
       <c r="M2" t="n">
-        <v>10.77827099916987</v>
+        <v>10.8100944829617</v>
       </c>
       <c r="N2" t="n">
-        <v>196.0600507496837</v>
+        <v>197.0204694616872</v>
       </c>
       <c r="O2" t="n">
-        <v>14.00214450538501</v>
+        <v>14.03639802305731</v>
       </c>
       <c r="P2" t="n">
-        <v>292.4769001961892</v>
+        <v>292.6432721943267</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20556,28 +20620,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4555196373821049</v>
+        <v>0.4423307320735674</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06116840824513703</v>
+        <v>0.05793093878833622</v>
       </c>
       <c r="M3" t="n">
-        <v>10.08900396106475</v>
+        <v>10.12343183453467</v>
       </c>
       <c r="N3" t="n">
-        <v>162.9799775702643</v>
+        <v>163.5426750623599</v>
       </c>
       <c r="O3" t="n">
-        <v>12.76636117185568</v>
+        <v>12.78838047066007</v>
       </c>
       <c r="P3" t="n">
-        <v>299.952931264493</v>
+        <v>300.0907680608789</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20634,28 +20698,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4643409864970355</v>
+        <v>0.4480949737778459</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06703357565328838</v>
+        <v>0.06246415864312316</v>
       </c>
       <c r="M4" t="n">
-        <v>9.747269228630206</v>
+        <v>9.794596322913192</v>
       </c>
       <c r="N4" t="n">
-        <v>155.1152935230806</v>
+        <v>156.4162981178605</v>
       </c>
       <c r="O4" t="n">
-        <v>12.45452903658266</v>
+        <v>12.50665015573157</v>
       </c>
       <c r="P4" t="n">
-        <v>310.4669890194509</v>
+        <v>310.6365459428952</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20712,28 +20776,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4638225432965513</v>
+        <v>0.4514403402604499</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07129066854960431</v>
+        <v>0.06779443472191538</v>
       </c>
       <c r="M5" t="n">
-        <v>9.225730716075883</v>
+        <v>9.255436605305565</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0887449211284</v>
+        <v>142.6546992627391</v>
       </c>
       <c r="O5" t="n">
-        <v>11.92009836037977</v>
+        <v>11.94381426775966</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7426152807016</v>
+        <v>317.8739104613821</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20790,28 +20854,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3971481051596276</v>
+        <v>0.3849704931617458</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04856259534915941</v>
+        <v>0.04580156187389106</v>
       </c>
       <c r="M6" t="n">
-        <v>9.589444096350483</v>
+        <v>9.618562244266089</v>
       </c>
       <c r="N6" t="n">
-        <v>156.8519489973144</v>
+        <v>157.3493068928499</v>
       </c>
       <c r="O6" t="n">
-        <v>12.5240548145285</v>
+        <v>12.54389520415608</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4976511340981</v>
+        <v>318.6266298914821</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20868,28 +20932,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3204941516267035</v>
+        <v>0.3067389766168499</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03742534493129446</v>
+        <v>0.03432136549310116</v>
       </c>
       <c r="M7" t="n">
-        <v>9.101282824114929</v>
+        <v>9.138385982841918</v>
       </c>
       <c r="N7" t="n">
-        <v>135.4773381443981</v>
+        <v>136.317372228084</v>
       </c>
       <c r="O7" t="n">
-        <v>11.63947327607217</v>
+        <v>11.67550308244077</v>
       </c>
       <c r="P7" t="n">
-        <v>321.6820374019673</v>
+        <v>321.8262520459671</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20946,28 +21010,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3003450270220498</v>
+        <v>0.2876836137566389</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03274873677769619</v>
+        <v>0.03012654841984452</v>
       </c>
       <c r="M8" t="n">
-        <v>8.937807507930485</v>
+        <v>8.969465161527879</v>
       </c>
       <c r="N8" t="n">
-        <v>136.4980460729446</v>
+        <v>137.0962775473843</v>
       </c>
       <c r="O8" t="n">
-        <v>11.68323782489018</v>
+        <v>11.70881196139832</v>
       </c>
       <c r="P8" t="n">
-        <v>324.8479757843872</v>
+        <v>324.9797870773398</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21024,28 +21088,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3315216341233579</v>
+        <v>0.3179582492315756</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K9" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03833017789121229</v>
+        <v>0.03537194421484591</v>
       </c>
       <c r="M9" t="n">
-        <v>8.995747298397244</v>
+        <v>9.033168788524838</v>
       </c>
       <c r="N9" t="n">
-        <v>140.1801225457748</v>
+        <v>140.8264679722324</v>
       </c>
       <c r="O9" t="n">
-        <v>11.83976868632892</v>
+        <v>11.8670328208964</v>
       </c>
       <c r="P9" t="n">
-        <v>332.6810122225607</v>
+        <v>332.8215293248709</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21102,28 +21166,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3863060669077772</v>
+        <v>0.3722859942443961</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K10" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05003520417508356</v>
+        <v>0.04659824092389186</v>
       </c>
       <c r="M10" t="n">
-        <v>9.370054172796083</v>
+        <v>9.412978854328449</v>
       </c>
       <c r="N10" t="n">
-        <v>144.4553231669829</v>
+        <v>145.2286825127464</v>
       </c>
       <c r="O10" t="n">
-        <v>12.01895682523999</v>
+        <v>12.05108636234702</v>
       </c>
       <c r="P10" t="n">
-        <v>330.1771775925124</v>
+        <v>330.3229976618303</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21180,28 +21244,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3675615214703332</v>
+        <v>0.3499597950143628</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04974395709316914</v>
+        <v>0.04497886509042492</v>
       </c>
       <c r="M11" t="n">
-        <v>8.978711038349115</v>
+        <v>9.033866908394424</v>
       </c>
       <c r="N11" t="n">
-        <v>131.2951877152264</v>
+        <v>132.8721384963111</v>
       </c>
       <c r="O11" t="n">
-        <v>11.45841122124819</v>
+        <v>11.52701776247053</v>
       </c>
       <c r="P11" t="n">
-        <v>335.2698833220238</v>
+        <v>335.4539366187798</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21258,28 +21322,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3224470393889378</v>
+        <v>0.305392704304868</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K12" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.040032683199137</v>
+        <v>0.0358101121719292</v>
       </c>
       <c r="M12" t="n">
-        <v>8.912310288115101</v>
+        <v>8.971679745683076</v>
       </c>
       <c r="N12" t="n">
-        <v>126.9652242501002</v>
+        <v>128.4391882843547</v>
       </c>
       <c r="O12" t="n">
-        <v>11.26788463954527</v>
+        <v>11.33310144154524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.107483806593</v>
+        <v>341.2857976007492</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21336,28 +21400,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2402665606308326</v>
+        <v>0.2294824703929235</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02114652005484507</v>
+        <v>0.01935528207948234</v>
       </c>
       <c r="M13" t="n">
-        <v>9.206374442941815</v>
+        <v>9.233258975964366</v>
       </c>
       <c r="N13" t="n">
-        <v>135.7840563283072</v>
+        <v>136.1307852981966</v>
       </c>
       <c r="O13" t="n">
-        <v>11.65264160301462</v>
+        <v>11.66750981564604</v>
       </c>
       <c r="P13" t="n">
-        <v>352.3397870559163</v>
+        <v>352.4536920984787</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21414,28 +21478,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1293268596765901</v>
+        <v>0.1160068460108345</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005763221259753037</v>
+        <v>0.004639590406469218</v>
       </c>
       <c r="M14" t="n">
-        <v>9.59255028673001</v>
+        <v>9.629918604179052</v>
       </c>
       <c r="N14" t="n">
-        <v>148.3762195616024</v>
+        <v>149.0888244144312</v>
       </c>
       <c r="O14" t="n">
-        <v>12.18097777526921</v>
+        <v>12.21019346343174</v>
       </c>
       <c r="P14" t="n">
-        <v>346.5472779956738</v>
+        <v>346.6862359277789</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21492,28 +21556,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2122472144205688</v>
+        <v>0.1976753025363291</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K15" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01365964299996592</v>
+        <v>0.01186145218624557</v>
       </c>
       <c r="M15" t="n">
-        <v>10.2487305751099</v>
+        <v>10.28388012807036</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3343940475349</v>
+        <v>170.1859479331525</v>
       </c>
       <c r="O15" t="n">
-        <v>13.01285495375764</v>
+        <v>13.04553363926338</v>
       </c>
       <c r="P15" t="n">
-        <v>344.7256270143086</v>
+        <v>344.8760791977454</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21551,7 +21615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P319"/>
+  <dimension ref="A1:P320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46309,6 +46373,88 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-35.44063212658483,174.41417742520952</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-35.44032319134357,174.41500362612322</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.44007748264652,174.415872977211</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-35.439717273727275,174.41673141576595</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-35.439373936086476,174.41757912408463</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-35.439022968975266,174.41839170984574</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-35.43859985261832,174.41914362150158</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-35.438136098950025,174.41989566119693</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-35.437636674104056,174.42061182136646</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-35.43712498355687,174.42128674255702</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-35.43653524631238,174.4218585487602</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-35.435857504468984,174.42232447808422</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-35.43519934645002,174.42281672219204</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-35.4345240085099,174.42316869493857</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P320"/>
+  <dimension ref="A1:P321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17040,6 +17040,60 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>263.94</v>
+      </c>
+      <c r="C321" t="n">
+        <v>273.99</v>
+      </c>
+      <c r="D321" t="n">
+        <v>292.17</v>
+      </c>
+      <c r="E321" t="n">
+        <v>308.53</v>
+      </c>
+      <c r="F321" t="n">
+        <v>304.11</v>
+      </c>
+      <c r="G321" t="n">
+        <v>303.97</v>
+      </c>
+      <c r="H321" t="n">
+        <v>313.68</v>
+      </c>
+      <c r="I321" t="n">
+        <v>323.77</v>
+      </c>
+      <c r="J321" t="n">
+        <v>318.32</v>
+      </c>
+      <c r="K321" t="n">
+        <v>312.98</v>
+      </c>
+      <c r="L321" t="n">
+        <v>314.26</v>
+      </c>
+      <c r="M321" t="n">
+        <v>334.1066666666667</v>
+      </c>
+      <c r="N321" t="n">
+        <v>319.09</v>
+      </c>
+      <c r="O321" t="n">
+        <v>321.65</v>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17051,7 +17105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20369,6 +20423,16 @@
       </c>
       <c r="B331" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -21615,7 +21679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P320"/>
+  <dimension ref="A1:P321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46455,6 +46519,88 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.44077449707046,174.41422694382112</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.44049382754546,174.41506297694283</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.440137561164924,174.41589620699196</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.43974679387658,174.41674707995662</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-35.43943046203598,174.41761651398113</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-35.43907192745432,174.41842710134594</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-35.438608868850125,174.41915051934055</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-35.43813158983566,174.41989144184825</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-35.437653188084724,174.4206308839229</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-35.43717054795175,174.42134491570323</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-35.43660257990969,174.42195370749081</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-35.4358992515289,174.42240826875695</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-35.43523893499381,174.42293641407926</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-35.43455071071711,174.42325090808006</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -20606,28 +20606,28 @@
         <v>0.0432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3576344182726204</v>
+        <v>0.3301221920768187</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03230620342298784</v>
+        <v>0.02719994654889746</v>
       </c>
       <c r="M2" t="n">
-        <v>10.8100944829617</v>
+        <v>10.89499540564059</v>
       </c>
       <c r="N2" t="n">
-        <v>197.0204694616872</v>
+        <v>201.3111251025657</v>
       </c>
       <c r="O2" t="n">
-        <v>14.03639802305731</v>
+        <v>14.1884151723357</v>
       </c>
       <c r="P2" t="n">
-        <v>292.6432721943267</v>
+        <v>292.9315244505613</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20684,28 +20684,28 @@
         <v>0.0415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4423307320735674</v>
+        <v>0.4151464587950139</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05793093878833622</v>
+        <v>0.05034409339010448</v>
       </c>
       <c r="M3" t="n">
-        <v>10.12343183453467</v>
+        <v>10.23085425204306</v>
       </c>
       <c r="N3" t="n">
-        <v>163.5426750623599</v>
+        <v>167.831232757056</v>
       </c>
       <c r="O3" t="n">
-        <v>12.78838047066007</v>
+        <v>12.95496942323894</v>
       </c>
       <c r="P3" t="n">
-        <v>300.0907680608789</v>
+        <v>300.3753984741777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20762,28 +20762,28 @@
         <v>0.0422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4480949737778459</v>
+        <v>0.4272915345995202</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06246415864312316</v>
+        <v>0.05649162806308572</v>
       </c>
       <c r="M4" t="n">
-        <v>9.794596322913192</v>
+        <v>9.865746862886224</v>
       </c>
       <c r="N4" t="n">
-        <v>156.4162981178605</v>
+        <v>158.9126560335485</v>
       </c>
       <c r="O4" t="n">
-        <v>12.50665015573157</v>
+        <v>12.60605632359099</v>
       </c>
       <c r="P4" t="n">
-        <v>310.6365459428952</v>
+        <v>310.8540809251937</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20840,28 +20840,28 @@
         <v>0.0417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4514403402604499</v>
+        <v>0.4367762276279427</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06779443472191538</v>
+        <v>0.0635603780829086</v>
       </c>
       <c r="M5" t="n">
-        <v>9.255436605305565</v>
+        <v>9.295803695558414</v>
       </c>
       <c r="N5" t="n">
-        <v>142.6546992627391</v>
+        <v>143.6560393855457</v>
       </c>
       <c r="O5" t="n">
-        <v>11.94381426775966</v>
+        <v>11.98565973926949</v>
       </c>
       <c r="P5" t="n">
-        <v>317.8739104613821</v>
+        <v>318.0296947489701</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20918,28 +20918,28 @@
         <v>0.045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3849704931617458</v>
+        <v>0.3680810297542612</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04580156187389106</v>
+        <v>0.04182511146468848</v>
       </c>
       <c r="M6" t="n">
-        <v>9.618562244266089</v>
+        <v>9.670850168583565</v>
       </c>
       <c r="N6" t="n">
-        <v>157.3493068928499</v>
+        <v>158.8098785236034</v>
       </c>
       <c r="O6" t="n">
-        <v>12.54389520415608</v>
+        <v>12.60197915105415</v>
       </c>
       <c r="P6" t="n">
-        <v>318.6266298914821</v>
+        <v>318.8058508693298</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20996,28 +20996,28 @@
         <v>0.043</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3067389766168499</v>
+        <v>0.2888436941620056</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03432136549310116</v>
+        <v>0.03029459686599523</v>
       </c>
       <c r="M7" t="n">
-        <v>9.138385982841918</v>
+        <v>9.195722977444277</v>
       </c>
       <c r="N7" t="n">
-        <v>136.317372228084</v>
+        <v>138.0760913570965</v>
       </c>
       <c r="O7" t="n">
-        <v>11.67550308244077</v>
+        <v>11.75057834138799</v>
       </c>
       <c r="P7" t="n">
-        <v>321.8262520459671</v>
+        <v>322.0142267383727</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21074,28 +21074,28 @@
         <v>0.0423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2876836137566389</v>
+        <v>0.2744073794666402</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03012654841984452</v>
+        <v>0.02746080207072676</v>
       </c>
       <c r="M8" t="n">
-        <v>8.969465161527879</v>
+        <v>9.003866480337404</v>
       </c>
       <c r="N8" t="n">
-        <v>137.0962775473843</v>
+        <v>137.8121869561458</v>
       </c>
       <c r="O8" t="n">
-        <v>11.70881196139832</v>
+        <v>11.73934354877417</v>
       </c>
       <c r="P8" t="n">
-        <v>324.9797870773398</v>
+        <v>325.1182543111379</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21152,28 +21152,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3179582492315756</v>
+        <v>0.3051124051841297</v>
       </c>
       <c r="J9" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03537194421484591</v>
+        <v>0.03269064781376063</v>
       </c>
       <c r="M9" t="n">
-        <v>9.033168788524838</v>
+        <v>9.067798838172008</v>
       </c>
       <c r="N9" t="n">
-        <v>140.8264679722324</v>
+        <v>141.3676035284559</v>
       </c>
       <c r="O9" t="n">
-        <v>11.8670328208964</v>
+        <v>11.88981091222463</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8215293248709</v>
+        <v>332.9548513005676</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21230,28 +21230,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3722859942443961</v>
+        <v>0.3567017274530121</v>
       </c>
       <c r="J10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K10" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04659824092389186</v>
+        <v>0.04281918595818723</v>
       </c>
       <c r="M10" t="n">
-        <v>9.412978854328449</v>
+        <v>9.464640186872673</v>
       </c>
       <c r="N10" t="n">
-        <v>145.2286825127464</v>
+        <v>146.3169728621386</v>
       </c>
       <c r="O10" t="n">
-        <v>12.05108636234702</v>
+        <v>12.096155292577</v>
       </c>
       <c r="P10" t="n">
-        <v>330.3229976618303</v>
+        <v>330.4853818657555</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21308,28 +21308,28 @@
         <v>0.0422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3499597950143628</v>
+        <v>0.3274572613807182</v>
       </c>
       <c r="J11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K11" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04497886509042492</v>
+        <v>0.03895354646692051</v>
       </c>
       <c r="M11" t="n">
-        <v>9.033866908394424</v>
+        <v>9.117917661995453</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8721384963111</v>
+        <v>135.7649605771674</v>
       </c>
       <c r="O11" t="n">
-        <v>11.52701776247053</v>
+        <v>11.65182219986073</v>
       </c>
       <c r="P11" t="n">
-        <v>335.4539366187798</v>
+        <v>335.689667082566</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21386,28 +21386,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.305392704304868</v>
+        <v>0.2805128139061219</v>
       </c>
       <c r="J12" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K12" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0358101121719292</v>
+        <v>0.02968959039601793</v>
       </c>
       <c r="M12" t="n">
-        <v>8.971679745683076</v>
+        <v>9.075886607017608</v>
       </c>
       <c r="N12" t="n">
-        <v>128.4391882843547</v>
+        <v>132.1039160808812</v>
       </c>
       <c r="O12" t="n">
-        <v>11.33310144154524</v>
+        <v>11.49364677031973</v>
       </c>
       <c r="P12" t="n">
-        <v>341.2857976007492</v>
+        <v>341.5464108098336</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21464,28 +21464,28 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2294824703929235</v>
+        <v>0.2127480555471402</v>
       </c>
       <c r="J13" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01935528207948234</v>
+        <v>0.0165683610923596</v>
       </c>
       <c r="M13" t="n">
-        <v>9.233258975964366</v>
+        <v>9.292349587622381</v>
       </c>
       <c r="N13" t="n">
-        <v>136.1307852981966</v>
+        <v>137.6223645367875</v>
       </c>
       <c r="O13" t="n">
-        <v>11.66750981564604</v>
+        <v>11.73125588062879</v>
       </c>
       <c r="P13" t="n">
-        <v>352.4536920984787</v>
+        <v>352.630777758839</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21542,28 +21542,28 @@
         <v>0.0413</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1160068460108345</v>
+        <v>0.09479710606914303</v>
       </c>
       <c r="J14" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004639590406469218</v>
+        <v>0.003062492988141319</v>
       </c>
       <c r="M14" t="n">
-        <v>9.629918604179052</v>
+        <v>9.70836250348151</v>
       </c>
       <c r="N14" t="n">
-        <v>149.0888244144312</v>
+        <v>151.6910573525533</v>
       </c>
       <c r="O14" t="n">
-        <v>12.21019346343174</v>
+        <v>12.31629235413618</v>
       </c>
       <c r="P14" t="n">
-        <v>346.6862359277789</v>
+        <v>346.9079163469315</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21620,28 +21620,28 @@
         <v>0.0414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1976753025363291</v>
+        <v>0.1777087386820057</v>
       </c>
       <c r="J15" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K15" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01186145218624557</v>
+        <v>0.009530294704202524</v>
       </c>
       <c r="M15" t="n">
-        <v>10.28388012807036</v>
+        <v>10.34650857450973</v>
       </c>
       <c r="N15" t="n">
-        <v>170.1859479331525</v>
+        <v>172.3216952836208</v>
       </c>
       <c r="O15" t="n">
-        <v>13.04553363926338</v>
+        <v>13.12713583702175</v>
       </c>
       <c r="P15" t="n">
-        <v>344.8760791977454</v>
+        <v>345.0826191236474</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -558,7 +558,7 @@
         <v>338.12</v>
       </c>
       <c r="M2" t="n">
-        <v>349.4288888888889</v>
+        <v>349.43</v>
       </c>
       <c r="N2" t="n">
         <v>343.42</v>
@@ -612,7 +612,7 @@
         <v>328.39</v>
       </c>
       <c r="M3" t="n">
-        <v>334.1744444444445</v>
+        <v>334.17</v>
       </c>
       <c r="N3" t="n">
         <v>335.36</v>
@@ -720,7 +720,7 @@
         <v>339.9</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7422222222222</v>
+        <v>349.74</v>
       </c>
       <c r="N5" t="n">
         <v>341.04</v>
@@ -774,7 +774,7 @@
         <v>349.87</v>
       </c>
       <c r="M6" t="n">
-        <v>361.9288888888889</v>
+        <v>361.93</v>
       </c>
       <c r="N6" t="n">
         <v>349.53</v>
@@ -828,7 +828,7 @@
         <v>320.2</v>
       </c>
       <c r="M7" t="n">
-        <v>328.7488888888889</v>
+        <v>328.75</v>
       </c>
       <c r="N7" t="n">
         <v>319.82</v>
@@ -882,7 +882,7 @@
         <v>321.89</v>
       </c>
       <c r="M8" t="n">
-        <v>341.0655555555555</v>
+        <v>341.07</v>
       </c>
       <c r="N8" t="n">
         <v>327</v>
@@ -936,7 +936,7 @@
         <v>347.47</v>
       </c>
       <c r="M9" t="n">
-        <v>356.2677777777778</v>
+        <v>356.27</v>
       </c>
       <c r="N9" t="n">
         <v>349.16</v>
@@ -990,7 +990,7 @@
         <v>334.13</v>
       </c>
       <c r="M10" t="n">
-        <v>346.3144444444445</v>
+        <v>346.31</v>
       </c>
       <c r="N10" t="n">
         <v>333.78</v>
@@ -1044,7 +1044,7 @@
         <v>321.21</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9244444444445</v>
+        <v>327.92</v>
       </c>
       <c r="N11" t="n">
         <v>327.21</v>
@@ -1152,7 +1152,7 @@
         <v>340</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7533333333333</v>
+        <v>346.75</v>
       </c>
       <c r="N13" t="n">
         <v>341.21</v>
@@ -1206,7 +1206,7 @@
         <v>343.96</v>
       </c>
       <c r="M14" t="n">
-        <v>354.9877777777777</v>
+        <v>354.99</v>
       </c>
       <c r="N14" t="n">
         <v>346.57</v>
@@ -1354,7 +1354,7 @@
         <v>336.45</v>
       </c>
       <c r="M17" t="n">
-        <v>344.5766666666667</v>
+        <v>344.58</v>
       </c>
       <c r="N17" t="n">
         <v>336.71</v>
@@ -1408,7 +1408,7 @@
         <v>323.69</v>
       </c>
       <c r="M18" t="n">
-        <v>340.9744444444444</v>
+        <v>340.97</v>
       </c>
       <c r="N18" t="n">
         <v>329.7</v>
@@ -1462,7 +1462,7 @@
         <v>344.71</v>
       </c>
       <c r="M19" t="n">
-        <v>360.6777777777777</v>
+        <v>360.68</v>
       </c>
       <c r="N19" t="n">
         <v>349.28</v>
@@ -1516,7 +1516,7 @@
         <v>345.58</v>
       </c>
       <c r="M20" t="n">
-        <v>351.7977777777777</v>
+        <v>351.8</v>
       </c>
       <c r="N20" t="n">
         <v>350.57</v>
@@ -1570,7 +1570,7 @@
         <v>348.64</v>
       </c>
       <c r="M21" t="n">
-        <v>361.5488888888889</v>
+        <v>361.55</v>
       </c>
       <c r="N21" t="n">
         <v>351.34</v>
@@ -1620,7 +1620,7 @@
         <v>342.54</v>
       </c>
       <c r="M22" t="n">
-        <v>368.3577777777778</v>
+        <v>368.36</v>
       </c>
       <c r="N22" t="n">
         <v>359.73</v>
@@ -1674,7 +1674,7 @@
         <v>333.1</v>
       </c>
       <c r="M23" t="n">
-        <v>342.6255555555555</v>
+        <v>342.63</v>
       </c>
       <c r="N23" t="n">
         <v>330.93</v>
@@ -1728,7 +1728,7 @@
         <v>338.21</v>
       </c>
       <c r="M24" t="n">
-        <v>347.6244444444445</v>
+        <v>347.62</v>
       </c>
       <c r="N24" t="n">
         <v>335.18</v>
@@ -1836,7 +1836,7 @@
         <v>342.88</v>
       </c>
       <c r="M26" t="n">
-        <v>352.7044444444444</v>
+        <v>352.7</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>353.3622222222222</v>
+        <v>353.36</v>
       </c>
       <c r="N27" t="n">
         <v>352.05</v>
@@ -1938,7 +1938,7 @@
         <v>356.91</v>
       </c>
       <c r="M28" t="n">
-        <v>369.7222222222222</v>
+        <v>369.72</v>
       </c>
       <c r="N28" t="n">
         <v>362.45</v>
@@ -2042,7 +2042,7 @@
         <v>331.7</v>
       </c>
       <c r="M30" t="n">
-        <v>344.7222222222222</v>
+        <v>344.72</v>
       </c>
       <c r="N30" t="n">
         <v>347.71</v>
@@ -2144,7 +2144,7 @@
         <v>345.3</v>
       </c>
       <c r="M32" t="n">
-        <v>355.0533333333333</v>
+        <v>355.05</v>
       </c>
       <c r="N32" t="n">
         <v>350.22</v>
@@ -2198,7 +2198,7 @@
         <v>332.18</v>
       </c>
       <c r="M33" t="n">
-        <v>343.6655555555556</v>
+        <v>343.67</v>
       </c>
       <c r="N33" t="n">
         <v>342.76</v>
@@ -2252,7 +2252,7 @@
         <v>320.77</v>
       </c>
       <c r="M34" t="n">
-        <v>327.5544444444445</v>
+        <v>327.55</v>
       </c>
       <c r="N34" t="n">
         <v>324.11</v>
@@ -2360,7 +2360,7 @@
         <v>353.68</v>
       </c>
       <c r="M36" t="n">
-        <v>361.8144444444445</v>
+        <v>361.81</v>
       </c>
       <c r="N36" t="n">
         <v>354.71</v>
@@ -2414,7 +2414,7 @@
         <v>338.87</v>
       </c>
       <c r="M37" t="n">
-        <v>347.9711111111111</v>
+        <v>347.97</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
@@ -2546,7 +2546,7 @@
         <v>349.71</v>
       </c>
       <c r="M40" t="n">
-        <v>362.2355555555556</v>
+        <v>362.24</v>
       </c>
       <c r="N40" t="n">
         <v>357.19</v>
@@ -2644,7 +2644,7 @@
         <v>354.8</v>
       </c>
       <c r="M42" t="n">
-        <v>365.4022222222222</v>
+        <v>365.4</v>
       </c>
       <c r="N42" t="n">
         <v>364.81</v>
@@ -2694,7 +2694,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>363.7033333333333</v>
+        <v>363.7</v>
       </c>
       <c r="N43" t="n">
         <v>360.13</v>
@@ -2748,7 +2748,7 @@
         <v>359.67</v>
       </c>
       <c r="M44" t="n">
-        <v>370.1455555555555</v>
+        <v>370.15</v>
       </c>
       <c r="N44" t="n">
         <v>361.13</v>
@@ -2872,7 +2872,7 @@
         <v>355.91</v>
       </c>
       <c r="M47" t="n">
-        <v>366.8244444444445</v>
+        <v>366.82</v>
       </c>
       <c r="N47" t="n">
         <v>354.52</v>
@@ -2926,7 +2926,7 @@
         <v>348.16</v>
       </c>
       <c r="M48" t="n">
-        <v>358.3411111111111</v>
+        <v>358.34</v>
       </c>
       <c r="N48" t="n">
         <v>355.22</v>
@@ -2980,7 +2980,7 @@
         <v>325.63</v>
       </c>
       <c r="M49" t="n">
-        <v>337.3133333333333</v>
+        <v>337.31</v>
       </c>
       <c r="N49" t="n">
         <v>340.75</v>
@@ -3034,7 +3034,7 @@
         <v>353.78</v>
       </c>
       <c r="M50" t="n">
-        <v>360.7455555555555</v>
+        <v>360.75</v>
       </c>
       <c r="N50" t="n">
         <v>357.22</v>
@@ -3084,7 +3084,7 @@
         <v>349.14</v>
       </c>
       <c r="M51" t="n">
-        <v>358.0488888888889</v>
+        <v>358.05</v>
       </c>
       <c r="N51" t="n">
         <v>351.21</v>
@@ -3138,7 +3138,7 @@
         <v>350.16</v>
       </c>
       <c r="M52" t="n">
-        <v>357.0822222222222</v>
+        <v>357.08</v>
       </c>
       <c r="N52" t="n">
         <v>353.17</v>
@@ -3190,7 +3190,7 @@
         <v>344.98</v>
       </c>
       <c r="M53" t="n">
-        <v>357.1755555555555</v>
+        <v>357.18</v>
       </c>
       <c r="N53" t="n">
         <v>345.2</v>
@@ -3228,7 +3228,7 @@
         <v>371.98</v>
       </c>
       <c r="M54" t="n">
-        <v>382.8633333333333</v>
+        <v>382.86</v>
       </c>
       <c r="N54" t="n">
         <v>373.92</v>
@@ -3330,7 +3330,7 @@
         <v>346.16</v>
       </c>
       <c r="M56" t="n">
-        <v>358.3422222222222</v>
+        <v>358.34</v>
       </c>
       <c r="N56" t="n">
         <v>346.29</v>
@@ -3366,7 +3366,7 @@
         <v>343.26</v>
       </c>
       <c r="M57" t="n">
-        <v>353.8177777777778</v>
+        <v>353.82</v>
       </c>
       <c r="N57" t="n">
         <v>346.74</v>
@@ -3420,7 +3420,7 @@
         <v>364.59</v>
       </c>
       <c r="M58" t="n">
-        <v>382.4644444444445</v>
+        <v>382.46</v>
       </c>
       <c r="N58" t="n">
         <v>372.74</v>
@@ -3630,7 +3630,7 @@
         <v>335.75</v>
       </c>
       <c r="M62" t="n">
-        <v>349.1455555555555</v>
+        <v>349.15</v>
       </c>
       <c r="N62" t="n">
         <v>340.92</v>
@@ -3684,7 +3684,7 @@
         <v>344.29</v>
       </c>
       <c r="M63" t="n">
-        <v>359.0766666666667</v>
+        <v>359.08</v>
       </c>
       <c r="N63" t="n">
         <v>353.77</v>
@@ -3782,7 +3782,7 @@
         <v>352.65</v>
       </c>
       <c r="M65" t="n">
-        <v>364.6922222222223</v>
+        <v>364.69</v>
       </c>
       <c r="N65" t="n">
         <v>358.63</v>
@@ -3824,7 +3824,7 @@
         <v>326.02</v>
       </c>
       <c r="M66" t="n">
-        <v>340.7388888888889</v>
+        <v>340.74</v>
       </c>
       <c r="N66" t="n">
         <v>328.85</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>347.9066666666667</v>
+        <v>347.91</v>
       </c>
       <c r="N67" t="n">
         <v>335.88</v>
@@ -4086,7 +4086,7 @@
         <v>349.84</v>
       </c>
       <c r="M71" t="n">
-        <v>361.9211111111111</v>
+        <v>361.92</v>
       </c>
       <c r="N71" t="n">
         <v>353.15</v>
@@ -4140,7 +4140,7 @@
         <v>327.03</v>
       </c>
       <c r="M72" t="n">
-        <v>347.0911111111111</v>
+        <v>347.09</v>
       </c>
       <c r="N72" t="n">
         <v>332.01</v>
@@ -4194,7 +4194,7 @@
         <v>321.3</v>
       </c>
       <c r="M73" t="n">
-        <v>336.8788888888889</v>
+        <v>336.88</v>
       </c>
       <c r="N73" t="n">
         <v>337.98</v>
@@ -4248,7 +4248,7 @@
         <v>348.57</v>
       </c>
       <c r="M74" t="n">
-        <v>359.8222222222223</v>
+        <v>359.82</v>
       </c>
       <c r="N74" t="n">
         <v>351.96</v>
@@ -4300,7 +4300,7 @@
         <v>337</v>
       </c>
       <c r="M75" t="n">
-        <v>348.0488888888889</v>
+        <v>348.05</v>
       </c>
       <c r="N75" t="n">
         <v>337.65</v>
@@ -4354,7 +4354,7 @@
         <v>356.14</v>
       </c>
       <c r="M76" t="n">
-        <v>362.3377777777778</v>
+        <v>362.34</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -4404,7 +4404,7 @@
         <v>349.75</v>
       </c>
       <c r="M77" t="n">
-        <v>355.6644444444445</v>
+        <v>355.66</v>
       </c>
       <c r="N77" t="n">
         <v>354.72</v>
@@ -4448,7 +4448,7 @@
         <v>344.22</v>
       </c>
       <c r="M78" t="n">
-        <v>341.2722222222222</v>
+        <v>341.27</v>
       </c>
       <c r="N78" t="n">
         <v>329.71</v>
@@ -4502,7 +4502,7 @@
         <v>354.52</v>
       </c>
       <c r="M79" t="n">
-        <v>367.2622222222223</v>
+        <v>367.26</v>
       </c>
       <c r="N79" t="n">
         <v>356.09</v>
@@ -4556,7 +4556,7 @@
         <v>341.46</v>
       </c>
       <c r="M80" t="n">
-        <v>356.2488888888889</v>
+        <v>356.25</v>
       </c>
       <c r="N80" t="n">
         <v>346.7</v>
@@ -4610,7 +4610,7 @@
         <v>353.13</v>
       </c>
       <c r="M81" t="n">
-        <v>364.1444444444445</v>
+        <v>364.14</v>
       </c>
       <c r="N81" t="n">
         <v>357.51</v>
@@ -4664,7 +4664,7 @@
         <v>354.46</v>
       </c>
       <c r="M82" t="n">
-        <v>361.7611111111111</v>
+        <v>361.76</v>
       </c>
       <c r="N82" t="n">
         <v>357.7</v>
@@ -4716,7 +4716,7 @@
         <v>354.28</v>
       </c>
       <c r="M83" t="n">
-        <v>367.5744444444445</v>
+        <v>367.57</v>
       </c>
       <c r="N83" t="n">
         <v>359.26</v>
@@ -4770,7 +4770,7 @@
         <v>334.78</v>
       </c>
       <c r="M84" t="n">
-        <v>346.4744444444444</v>
+        <v>346.47</v>
       </c>
       <c r="N84" t="n">
         <v>336.44</v>
@@ -4824,7 +4824,7 @@
         <v>338.07</v>
       </c>
       <c r="M85" t="n">
-        <v>345.9288888888889</v>
+        <v>345.93</v>
       </c>
       <c r="N85" t="n">
         <v>340.68</v>
@@ -4878,7 +4878,7 @@
         <v>323.3</v>
       </c>
       <c r="M86" t="n">
-        <v>333.0377777777778</v>
+        <v>333.04</v>
       </c>
       <c r="N86" t="n">
         <v>326.48</v>
@@ -4932,7 +4932,7 @@
         <v>342.52</v>
       </c>
       <c r="M87" t="n">
-        <v>350.5322222222222</v>
+        <v>350.53</v>
       </c>
       <c r="N87" t="n">
         <v>346.62</v>
@@ -4976,7 +4976,7 @@
         <v>341.82</v>
       </c>
       <c r="M88" t="n">
-        <v>353.9288888888889</v>
+        <v>353.93</v>
       </c>
       <c r="N88" t="n">
         <v>345.05</v>
@@ -5134,7 +5134,7 @@
         <v>365.12</v>
       </c>
       <c r="M91" t="n">
-        <v>379.5211111111111</v>
+        <v>379.52</v>
       </c>
       <c r="N91" t="n">
         <v>364.55</v>
@@ -5184,7 +5184,7 @@
         <v>349.73</v>
       </c>
       <c r="M92" t="n">
-        <v>361.0955555555556</v>
+        <v>361.1</v>
       </c>
       <c r="N92" t="n">
         <v>356.39</v>
@@ -5238,7 +5238,7 @@
         <v>357.46</v>
       </c>
       <c r="M93" t="n">
-        <v>366.1288888888889</v>
+        <v>366.13</v>
       </c>
       <c r="N93" t="n">
         <v>361.32</v>
@@ -5292,7 +5292,7 @@
         <v>333.24</v>
       </c>
       <c r="M94" t="n">
-        <v>344.5611111111111</v>
+        <v>344.56</v>
       </c>
       <c r="N94" t="n">
         <v>332.93</v>
@@ -5346,7 +5346,7 @@
         <v>312.79</v>
       </c>
       <c r="M95" t="n">
-        <v>332.3833333333333</v>
+        <v>332.38</v>
       </c>
       <c r="N95" t="n">
         <v>324.21</v>
@@ -5400,7 +5400,7 @@
         <v>327.92</v>
       </c>
       <c r="M96" t="n">
-        <v>338.4333333333333</v>
+        <v>338.43</v>
       </c>
       <c r="N96" t="n">
         <v>330.66</v>
@@ -5454,7 +5454,7 @@
         <v>347.99</v>
       </c>
       <c r="M97" t="n">
-        <v>358.9533333333333</v>
+        <v>358.95</v>
       </c>
       <c r="N97" t="n">
         <v>354.89</v>
@@ -5508,7 +5508,7 @@
         <v>357.94</v>
       </c>
       <c r="M98" t="n">
-        <v>366.7066666666667</v>
+        <v>366.71</v>
       </c>
       <c r="N98" t="n">
         <v>365.91</v>
@@ -5562,7 +5562,7 @@
         <v>362.51</v>
       </c>
       <c r="M99" t="n">
-        <v>372.8833333333333</v>
+        <v>372.88</v>
       </c>
       <c r="N99" t="n">
         <v>372.64</v>
@@ -5616,7 +5616,7 @@
         <v>345.57</v>
       </c>
       <c r="M100" t="n">
-        <v>357.7144444444444</v>
+        <v>357.71</v>
       </c>
       <c r="N100" t="n">
         <v>352.86</v>
@@ -5670,7 +5670,7 @@
         <v>338.82</v>
       </c>
       <c r="M101" t="n">
-        <v>345.8644444444445</v>
+        <v>345.86</v>
       </c>
       <c r="N101" t="n">
         <v>342.8</v>
@@ -5724,7 +5724,7 @@
         <v>357.15</v>
       </c>
       <c r="M102" t="n">
-        <v>374.3122222222222</v>
+        <v>374.31</v>
       </c>
       <c r="N102" t="n">
         <v>363.63</v>
@@ -5832,7 +5832,7 @@
         <v>350.41</v>
       </c>
       <c r="M104" t="n">
-        <v>356.1344444444445</v>
+        <v>356.13</v>
       </c>
       <c r="N104" t="n">
         <v>348.39</v>
@@ -5922,7 +5922,7 @@
         <v>316.21</v>
       </c>
       <c r="M106" t="n">
-        <v>329.3733333333333</v>
+        <v>329.37</v>
       </c>
       <c r="N106" t="n">
         <v>304.03</v>
@@ -5968,7 +5968,7 @@
         <v>319.78</v>
       </c>
       <c r="M107" t="n">
-        <v>328.7444444444445</v>
+        <v>328.74</v>
       </c>
       <c r="N107" t="n">
         <v>319.21</v>
@@ -6022,7 +6022,7 @@
         <v>348.86</v>
       </c>
       <c r="M108" t="n">
-        <v>359.6333333333333</v>
+        <v>359.63</v>
       </c>
       <c r="N108" t="n">
         <v>350.46</v>
@@ -6076,7 +6076,7 @@
         <v>332.32</v>
       </c>
       <c r="M109" t="n">
-        <v>344.2522222222222</v>
+        <v>344.25</v>
       </c>
       <c r="N109" t="n">
         <v>334.92</v>
@@ -6122,7 +6122,7 @@
         <v>340.01</v>
       </c>
       <c r="M110" t="n">
-        <v>353.2233333333333</v>
+        <v>353.22</v>
       </c>
       <c r="N110" t="n">
         <v>343.29</v>
@@ -6176,7 +6176,7 @@
         <v>341.8</v>
       </c>
       <c r="M111" t="n">
-        <v>350.8977777777778</v>
+        <v>350.9</v>
       </c>
       <c r="N111" t="n">
         <v>349.65</v>
@@ -6220,7 +6220,7 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>354.3677777777777</v>
+        <v>354.37</v>
       </c>
       <c r="N112" t="n">
         <v>344.78</v>
@@ -6274,7 +6274,7 @@
         <v>339.57</v>
       </c>
       <c r="M113" t="n">
-        <v>352.4266666666667</v>
+        <v>352.43</v>
       </c>
       <c r="N113" t="n">
         <v>342.96</v>
@@ -6328,7 +6328,7 @@
         <v>343.21</v>
       </c>
       <c r="M114" t="n">
-        <v>353.2166666666667</v>
+        <v>353.22</v>
       </c>
       <c r="N114" t="n">
         <v>343.16</v>
@@ -6382,7 +6382,7 @@
         <v>341.02</v>
       </c>
       <c r="M115" t="n">
-        <v>353.5077777777778</v>
+        <v>353.51</v>
       </c>
       <c r="N115" t="n">
         <v>344.29</v>
@@ -6436,7 +6436,7 @@
         <v>342.95</v>
       </c>
       <c r="M116" t="n">
-        <v>355.6422222222222</v>
+        <v>355.64</v>
       </c>
       <c r="N116" t="n">
         <v>355.31</v>
@@ -6490,7 +6490,7 @@
         <v>350.82</v>
       </c>
       <c r="M117" t="n">
-        <v>363.5422222222222</v>
+        <v>363.54</v>
       </c>
       <c r="N117" t="n">
         <v>355.51</v>
@@ -6544,7 +6544,7 @@
         <v>359.51</v>
       </c>
       <c r="M118" t="n">
-        <v>365.1933333333333</v>
+        <v>365.19</v>
       </c>
       <c r="N118" t="n">
         <v>353.19</v>
@@ -6652,7 +6652,7 @@
         <v>342.5</v>
       </c>
       <c r="M120" t="n">
-        <v>350.4244444444445</v>
+        <v>350.42</v>
       </c>
       <c r="N120" t="n">
         <v>347.98</v>
@@ -6706,7 +6706,7 @@
         <v>361.74</v>
       </c>
       <c r="M121" t="n">
-        <v>373.1677777777778</v>
+        <v>373.17</v>
       </c>
       <c r="N121" t="n">
         <v>363.16</v>
@@ -6760,7 +6760,7 @@
         <v>346.97</v>
       </c>
       <c r="M122" t="n">
-        <v>356.3066666666667</v>
+        <v>356.31</v>
       </c>
       <c r="N122" t="n">
         <v>353.91</v>
@@ -6814,7 +6814,7 @@
         <v>360.28</v>
       </c>
       <c r="M123" t="n">
-        <v>367.9288888888889</v>
+        <v>367.93</v>
       </c>
       <c r="N123" t="n">
         <v>359.93</v>
@@ -6868,7 +6868,7 @@
         <v>354.07</v>
       </c>
       <c r="M124" t="n">
-        <v>365.4966666666666</v>
+        <v>365.5</v>
       </c>
       <c r="N124" t="n">
         <v>357.46</v>
@@ -6922,7 +6922,7 @@
         <v>364.09</v>
       </c>
       <c r="M125" t="n">
-        <v>366.1855555555555</v>
+        <v>366.19</v>
       </c>
       <c r="N125" t="n">
         <v>370.85</v>
@@ -6976,7 +6976,7 @@
         <v>357.18</v>
       </c>
       <c r="M126" t="n">
-        <v>360.8211111111111</v>
+        <v>360.82</v>
       </c>
       <c r="N126" t="n">
         <v>358.75</v>
@@ -7030,7 +7030,7 @@
         <v>349.33</v>
       </c>
       <c r="M127" t="n">
-        <v>359.0922222222222</v>
+        <v>359.09</v>
       </c>
       <c r="N127" t="n">
         <v>347.7</v>
@@ -7136,7 +7136,7 @@
         <v>359.91</v>
       </c>
       <c r="M129" t="n">
-        <v>371.1422222222222</v>
+        <v>371.14</v>
       </c>
       <c r="N129" t="n">
         <v>364.05</v>
@@ -7190,7 +7190,7 @@
         <v>338.32</v>
       </c>
       <c r="M130" t="n">
-        <v>351.5988888888889</v>
+        <v>351.6</v>
       </c>
       <c r="N130" t="n">
         <v>347.57</v>
@@ -7244,7 +7244,7 @@
         <v>345.18</v>
       </c>
       <c r="M131" t="n">
-        <v>351.9011111111111</v>
+        <v>351.9</v>
       </c>
       <c r="N131" t="n">
         <v>346.99</v>
@@ -7298,7 +7298,7 @@
         <v>331.48</v>
       </c>
       <c r="M132" t="n">
-        <v>342.6422222222222</v>
+        <v>342.64</v>
       </c>
       <c r="N132" t="n">
         <v>333.47</v>
@@ -7352,7 +7352,7 @@
         <v>344.05</v>
       </c>
       <c r="M133" t="n">
-        <v>351.4966666666667</v>
+        <v>351.5</v>
       </c>
       <c r="N133" t="n">
         <v>344.07</v>
@@ -7406,7 +7406,7 @@
         <v>349.02</v>
       </c>
       <c r="M134" t="n">
-        <v>362.8544444444445</v>
+        <v>362.85</v>
       </c>
       <c r="N134" t="n">
         <v>355.41</v>
@@ -7460,7 +7460,7 @@
         <v>340.74</v>
       </c>
       <c r="M135" t="n">
-        <v>351.6533333333333</v>
+        <v>351.65</v>
       </c>
       <c r="N135" t="n">
         <v>344.4</v>
@@ -7514,7 +7514,7 @@
         <v>344.81</v>
       </c>
       <c r="M136" t="n">
-        <v>350.9011111111111</v>
+        <v>350.9</v>
       </c>
       <c r="N136" t="n">
         <v>347.17</v>
@@ -7568,7 +7568,7 @@
         <v>338.37</v>
       </c>
       <c r="M137" t="n">
-        <v>345.3277777777778</v>
+        <v>345.33</v>
       </c>
       <c r="N137" t="n">
         <v>338.97</v>
@@ -7622,7 +7622,7 @@
         <v>330.84</v>
       </c>
       <c r="M138" t="n">
-        <v>340.8455555555556</v>
+        <v>340.85</v>
       </c>
       <c r="N138" t="n">
         <v>332.68</v>
@@ -7676,7 +7676,7 @@
         <v>332.17</v>
       </c>
       <c r="M139" t="n">
-        <v>345.2455555555555</v>
+        <v>345.25</v>
       </c>
       <c r="N139" t="n">
         <v>340.72</v>
@@ -7730,7 +7730,7 @@
         <v>316.02</v>
       </c>
       <c r="M140" t="n">
-        <v>329.3322222222222</v>
+        <v>329.33</v>
       </c>
       <c r="N140" t="n">
         <v>318.06</v>
@@ -7784,7 +7784,7 @@
         <v>317.52</v>
       </c>
       <c r="M141" t="n">
-        <v>326.6644444444445</v>
+        <v>326.66</v>
       </c>
       <c r="N141" t="n">
         <v>320.55</v>
@@ -7838,7 +7838,7 @@
         <v>351.25</v>
       </c>
       <c r="M142" t="n">
-        <v>362.6788888888889</v>
+        <v>362.68</v>
       </c>
       <c r="N142" t="n">
         <v>351.73</v>
@@ -7892,7 +7892,7 @@
         <v>349.52</v>
       </c>
       <c r="M143" t="n">
-        <v>362.9211111111111</v>
+        <v>362.92</v>
       </c>
       <c r="N143" t="n">
         <v>356.68</v>
@@ -7946,7 +7946,7 @@
         <v>346.67</v>
       </c>
       <c r="M144" t="n">
-        <v>362.6755555555556</v>
+        <v>362.68</v>
       </c>
       <c r="N144" t="n">
         <v>353.08</v>
@@ -8000,7 +8000,7 @@
         <v>361.33</v>
       </c>
       <c r="M145" t="n">
-        <v>366.0566666666667</v>
+        <v>366.06</v>
       </c>
       <c r="N145" t="n">
         <v>361.5</v>
@@ -8048,7 +8048,7 @@
         <v>328.35</v>
       </c>
       <c r="M146" t="n">
-        <v>346.3166666666667</v>
+        <v>346.32</v>
       </c>
       <c r="N146" t="n">
         <v>337.19</v>
@@ -8102,7 +8102,7 @@
         <v>348.63</v>
       </c>
       <c r="M147" t="n">
-        <v>356.4711111111111</v>
+        <v>356.47</v>
       </c>
       <c r="N147" t="n">
         <v>351.03</v>
@@ -8156,7 +8156,7 @@
         <v>330.18</v>
       </c>
       <c r="M148" t="n">
-        <v>344.4755555555556</v>
+        <v>344.48</v>
       </c>
       <c r="N148" t="n">
         <v>330.93</v>
@@ -8210,7 +8210,7 @@
         <v>346.99</v>
       </c>
       <c r="M149" t="n">
-        <v>350.6666666666667</v>
+        <v>350.67</v>
       </c>
       <c r="N149" t="n">
         <v>349.52</v>
@@ -8264,7 +8264,7 @@
         <v>329.58</v>
       </c>
       <c r="M150" t="n">
-        <v>346.3144444444445</v>
+        <v>346.31</v>
       </c>
       <c r="N150" t="n">
         <v>334.18</v>
@@ -8308,7 +8308,7 @@
         <v>345.79</v>
       </c>
       <c r="M151" t="n">
-        <v>354.1422222222222</v>
+        <v>354.14</v>
       </c>
       <c r="N151" t="n">
         <v>349.77</v>
@@ -8416,7 +8416,7 @@
         <v>347.84</v>
       </c>
       <c r="M153" t="n">
-        <v>361.4555555555555</v>
+        <v>361.46</v>
       </c>
       <c r="N153" t="n">
         <v>353.06</v>
@@ -8470,7 +8470,7 @@
         <v>339.09</v>
       </c>
       <c r="M154" t="n">
-        <v>351.8622222222222</v>
+        <v>351.86</v>
       </c>
       <c r="N154" t="n">
         <v>350.72</v>
@@ -8522,7 +8522,7 @@
         <v>337.46</v>
       </c>
       <c r="M155" t="n">
-        <v>346.8077777777777</v>
+        <v>346.81</v>
       </c>
       <c r="N155" t="n">
         <v>341.81</v>
@@ -8576,7 +8576,7 @@
         <v>334.8</v>
       </c>
       <c r="M156" t="n">
-        <v>344.1411111111111</v>
+        <v>344.14</v>
       </c>
       <c r="N156" t="n">
         <v>340.72</v>
@@ -8684,7 +8684,7 @@
         <v>350.54</v>
       </c>
       <c r="M158" t="n">
-        <v>355.9433333333333</v>
+        <v>355.94</v>
       </c>
       <c r="N158" t="n">
         <v>350.1</v>
@@ -8716,7 +8716,7 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>365.2877777777778</v>
+        <v>365.29</v>
       </c>
       <c r="N159" t="n">
         <v>350.59</v>
@@ -8770,7 +8770,7 @@
         <v>351.2</v>
       </c>
       <c r="M160" t="n">
-        <v>356.3677777777777</v>
+        <v>356.37</v>
       </c>
       <c r="N160" t="n">
         <v>352.87</v>
@@ -8824,7 +8824,7 @@
         <v>360.4</v>
       </c>
       <c r="M161" t="n">
-        <v>363.4588888888889</v>
+        <v>363.46</v>
       </c>
       <c r="N161" t="n">
         <v>361.5</v>
@@ -8878,7 +8878,7 @@
         <v>338.62</v>
       </c>
       <c r="M162" t="n">
-        <v>353.7377777777777</v>
+        <v>353.74</v>
       </c>
       <c r="N162" t="n">
         <v>343.81</v>
@@ -8932,7 +8932,7 @@
         <v>363.77</v>
       </c>
       <c r="M163" t="n">
-        <v>367.3044444444445</v>
+        <v>367.3</v>
       </c>
       <c r="N163" t="n">
         <v>355.9</v>
@@ -8986,7 +8986,7 @@
         <v>326.01</v>
       </c>
       <c r="M164" t="n">
-        <v>338.9011111111111</v>
+        <v>338.9</v>
       </c>
       <c r="N164" t="n">
         <v>324.25</v>
@@ -9040,7 +9040,7 @@
         <v>357.95</v>
       </c>
       <c r="M165" t="n">
-        <v>367.7733333333333</v>
+        <v>367.77</v>
       </c>
       <c r="N165" t="n">
         <v>355.66</v>
@@ -9094,7 +9094,7 @@
         <v>333.74</v>
       </c>
       <c r="M166" t="n">
-        <v>343.3644444444445</v>
+        <v>343.36</v>
       </c>
       <c r="N166" t="n">
         <v>338.8</v>
@@ -9148,7 +9148,7 @@
         <v>344.68</v>
       </c>
       <c r="M167" t="n">
-        <v>355.1688888888889</v>
+        <v>355.17</v>
       </c>
       <c r="N167" t="n">
         <v>343.71</v>
@@ -9274,7 +9274,7 @@
         <v>351.52</v>
       </c>
       <c r="M170" t="n">
-        <v>362.0344444444444</v>
+        <v>362.03</v>
       </c>
       <c r="N170" t="n">
         <v>353.66</v>
@@ -9328,7 +9328,7 @@
         <v>339.72</v>
       </c>
       <c r="M171" t="n">
-        <v>346.6077777777778</v>
+        <v>346.61</v>
       </c>
       <c r="N171" t="n">
         <v>338</v>
@@ -9430,7 +9430,7 @@
         <v>350.97</v>
       </c>
       <c r="M173" t="n">
-        <v>367.8455555555556</v>
+        <v>367.85</v>
       </c>
       <c r="N173" t="n">
         <v>354.53</v>
@@ -9484,7 +9484,7 @@
         <v>347.73</v>
       </c>
       <c r="M174" t="n">
-        <v>355.3755555555555</v>
+        <v>355.38</v>
       </c>
       <c r="N174" t="n">
         <v>349.92</v>
@@ -9538,7 +9538,7 @@
         <v>336.8</v>
       </c>
       <c r="M175" t="n">
-        <v>330.0088888888889</v>
+        <v>330.01</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
@@ -9590,7 +9590,7 @@
         <v>371.3</v>
       </c>
       <c r="M176" t="n">
-        <v>380.9388888888889</v>
+        <v>380.94</v>
       </c>
       <c r="N176" t="n">
         <v>369.51</v>
@@ -9680,7 +9680,7 @@
         <v>344.78</v>
       </c>
       <c r="M178" t="n">
-        <v>352.3955555555555</v>
+        <v>352.4</v>
       </c>
       <c r="N178" t="n">
         <v>341.62</v>
@@ -9788,7 +9788,7 @@
         <v>345.54</v>
       </c>
       <c r="M180" t="n">
-        <v>354.3188888888889</v>
+        <v>354.32</v>
       </c>
       <c r="N180" t="n">
         <v>352.88</v>
@@ -9842,7 +9842,7 @@
         <v>346.68</v>
       </c>
       <c r="M181" t="n">
-        <v>354.1677777777778</v>
+        <v>354.17</v>
       </c>
       <c r="N181" t="n">
         <v>352.4</v>
@@ -9894,7 +9894,7 @@
         <v>350.03</v>
       </c>
       <c r="M182" t="n">
-        <v>360.2655555555555</v>
+        <v>360.27</v>
       </c>
       <c r="N182" t="n">
         <v>352.95</v>
@@ -9948,7 +9948,7 @@
         <v>345.3</v>
       </c>
       <c r="M183" t="n">
-        <v>352.9444444444445</v>
+        <v>352.94</v>
       </c>
       <c r="N183" t="n">
         <v>348.55</v>
@@ -10002,7 +10002,7 @@
         <v>320.59</v>
       </c>
       <c r="M184" t="n">
-        <v>323.4422222222223</v>
+        <v>323.44</v>
       </c>
       <c r="N184" t="n">
         <v>314.08</v>
@@ -10104,7 +10104,7 @@
         <v>334.7</v>
       </c>
       <c r="M186" t="n">
-        <v>348.7188888888889</v>
+        <v>348.72</v>
       </c>
       <c r="N186" t="n">
         <v>337.38</v>
@@ -10158,7 +10158,7 @@
         <v>354.86</v>
       </c>
       <c r="M187" t="n">
-        <v>365.9166666666667</v>
+        <v>365.92</v>
       </c>
       <c r="N187" t="n">
         <v>362.26</v>
@@ -10212,7 +10212,7 @@
         <v>354.94</v>
       </c>
       <c r="M188" t="n">
-        <v>364.0233333333333</v>
+        <v>364.02</v>
       </c>
       <c r="N188" t="n">
         <v>359.39</v>
@@ -10266,7 +10266,7 @@
         <v>348.48</v>
       </c>
       <c r="M189" t="n">
-        <v>353.0022222222222</v>
+        <v>353</v>
       </c>
       <c r="N189" t="n">
         <v>353.06</v>
@@ -10320,7 +10320,7 @@
         <v>354.47</v>
       </c>
       <c r="M190" t="n">
-        <v>371.1944444444445</v>
+        <v>371.19</v>
       </c>
       <c r="N190" t="n">
         <v>353.82</v>
@@ -10374,7 +10374,7 @@
         <v>343.57</v>
       </c>
       <c r="M191" t="n">
-        <v>351.3122222222222</v>
+        <v>351.31</v>
       </c>
       <c r="N191" t="n">
         <v>341.44</v>
@@ -10426,7 +10426,7 @@
         <v>364.67</v>
       </c>
       <c r="M192" t="n">
-        <v>375.6277777777778</v>
+        <v>375.63</v>
       </c>
       <c r="N192" t="n">
         <v>358.53</v>
@@ -10480,7 +10480,7 @@
         <v>348.19</v>
       </c>
       <c r="M193" t="n">
-        <v>360.3855555555555</v>
+        <v>360.39</v>
       </c>
       <c r="N193" t="n">
         <v>350.79</v>
@@ -10534,7 +10534,7 @@
         <v>364.41</v>
       </c>
       <c r="M194" t="n">
-        <v>360.3811111111111</v>
+        <v>360.38</v>
       </c>
       <c r="N194" t="n">
         <v>361.51</v>
@@ -10588,7 +10588,7 @@
         <v>340.42</v>
       </c>
       <c r="M195" t="n">
-        <v>345.2811111111111</v>
+        <v>345.28</v>
       </c>
       <c r="N195" t="n">
         <v>336.64</v>
@@ -10642,7 +10642,7 @@
         <v>341.57</v>
       </c>
       <c r="M196" t="n">
-        <v>350.2544444444445</v>
+        <v>350.25</v>
       </c>
       <c r="N196" t="n">
         <v>337.37</v>
@@ -10696,7 +10696,7 @@
         <v>360.5</v>
       </c>
       <c r="M197" t="n">
-        <v>372.2811111111111</v>
+        <v>372.28</v>
       </c>
       <c r="N197" t="n">
         <v>359.6</v>
@@ -10740,7 +10740,7 @@
         <v>338.6</v>
       </c>
       <c r="M198" t="n">
-        <v>340.8244444444445</v>
+        <v>340.82</v>
       </c>
       <c r="N198" t="n">
         <v>336.27</v>
@@ -10794,7 +10794,7 @@
         <v>349.57</v>
       </c>
       <c r="M199" t="n">
-        <v>357.6666666666667</v>
+        <v>357.67</v>
       </c>
       <c r="N199" t="n">
         <v>352.32</v>
@@ -10902,7 +10902,7 @@
         <v>354.7</v>
       </c>
       <c r="M201" t="n">
-        <v>361.4311111111111</v>
+        <v>361.43</v>
       </c>
       <c r="N201" t="n">
         <v>353.32</v>
@@ -11044,7 +11044,7 @@
         <v>360.21</v>
       </c>
       <c r="M204" t="n">
-        <v>373.4366666666667</v>
+        <v>373.44</v>
       </c>
       <c r="N204" t="n">
         <v>366.18</v>
@@ -11098,7 +11098,7 @@
         <v>351.76</v>
       </c>
       <c r="M205" t="n">
-        <v>345.7666666666667</v>
+        <v>345.77</v>
       </c>
       <c r="N205" t="n">
         <v>323.63</v>
@@ -11152,7 +11152,7 @@
         <v>337.16</v>
       </c>
       <c r="M206" t="n">
-        <v>353.4033333333333</v>
+        <v>353.4</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         <v>344.67</v>
       </c>
       <c r="M207" t="n">
-        <v>356.3944444444444</v>
+        <v>356.39</v>
       </c>
       <c r="N207" t="n">
         <v>340.69</v>
@@ -11256,7 +11256,7 @@
         <v>368.83</v>
       </c>
       <c r="M208" t="n">
-        <v>378.0911111111111</v>
+        <v>378.09</v>
       </c>
       <c r="N208" t="n">
         <v>376.57</v>
@@ -11310,7 +11310,7 @@
         <v>350.96</v>
       </c>
       <c r="M209" t="n">
-        <v>357.0966666666667</v>
+        <v>357.1</v>
       </c>
       <c r="N209" t="n">
         <v>352.65</v>
@@ -11418,7 +11418,7 @@
         <v>349.19</v>
       </c>
       <c r="M211" t="n">
-        <v>361.3211111111111</v>
+        <v>361.32</v>
       </c>
       <c r="N211" t="n">
         <v>350.32</v>
@@ -11472,7 +11472,7 @@
         <v>347.17</v>
       </c>
       <c r="M212" t="n">
-        <v>358.8511111111111</v>
+        <v>358.85</v>
       </c>
       <c r="N212" t="n">
         <v>351.33</v>
@@ -11526,7 +11526,7 @@
         <v>351.04</v>
       </c>
       <c r="M213" t="n">
-        <v>363.2011111111111</v>
+        <v>363.2</v>
       </c>
       <c r="N213" t="n">
         <v>354.82</v>
@@ -11576,7 +11576,7 @@
         <v>330.02</v>
       </c>
       <c r="M214" t="n">
-        <v>343.7455555555555</v>
+        <v>343.75</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -11620,7 +11620,7 @@
         <v>359.15</v>
       </c>
       <c r="M215" t="n">
-        <v>369.4022222222222</v>
+        <v>369.4</v>
       </c>
       <c r="N215" t="n">
         <v>357.62</v>
@@ -11674,7 +11674,7 @@
         <v>338.39</v>
       </c>
       <c r="M216" t="n">
-        <v>349.5966666666667</v>
+        <v>349.6</v>
       </c>
       <c r="N216" t="n">
         <v>338.96</v>
@@ -11728,7 +11728,7 @@
         <v>343.31</v>
       </c>
       <c r="M217" t="n">
-        <v>355.1477777777778</v>
+        <v>355.15</v>
       </c>
       <c r="N217" t="n">
         <v>345.34</v>
@@ -11782,7 +11782,7 @@
         <v>363.69</v>
       </c>
       <c r="M218" t="n">
-        <v>375.7244444444444</v>
+        <v>375.72</v>
       </c>
       <c r="N218" t="n">
         <v>363.05</v>
@@ -11884,7 +11884,7 @@
         <v>358.05</v>
       </c>
       <c r="M220" t="n">
-        <v>364.2744444444445</v>
+        <v>364.27</v>
       </c>
       <c r="N220" t="n">
         <v>361.94</v>
@@ -11938,7 +11938,7 @@
         <v>361.97</v>
       </c>
       <c r="M221" t="n">
-        <v>377.7766666666667</v>
+        <v>377.78</v>
       </c>
       <c r="N221" t="n">
         <v>370.92</v>
@@ -11992,7 +11992,7 @@
         <v>360.84</v>
       </c>
       <c r="M222" t="n">
-        <v>367.7655555555555</v>
+        <v>367.77</v>
       </c>
       <c r="N222" t="n">
         <v>365.34</v>
@@ -12046,7 +12046,7 @@
         <v>367.4</v>
       </c>
       <c r="M223" t="n">
-        <v>377.1755555555556</v>
+        <v>377.18</v>
       </c>
       <c r="N223" t="n">
         <v>366.9</v>
@@ -12100,7 +12100,7 @@
         <v>362.01</v>
       </c>
       <c r="M224" t="n">
-        <v>376.6844444444445</v>
+        <v>376.68</v>
       </c>
       <c r="N224" t="n">
         <v>368.73</v>
@@ -12154,7 +12154,7 @@
         <v>365.04</v>
       </c>
       <c r="M225" t="n">
-        <v>377.5355555555556</v>
+        <v>377.54</v>
       </c>
       <c r="N225" t="n">
         <v>373.86</v>
@@ -12208,7 +12208,7 @@
         <v>356.76</v>
       </c>
       <c r="M226" t="n">
-        <v>366.5955555555556</v>
+        <v>366.6</v>
       </c>
       <c r="N226" t="n">
         <v>361.9</v>
@@ -12262,7 +12262,7 @@
         <v>350.03</v>
       </c>
       <c r="M227" t="n">
-        <v>366.7855555555556</v>
+        <v>366.79</v>
       </c>
       <c r="N227" t="n">
         <v>356.3</v>
@@ -12316,7 +12316,7 @@
         <v>351.53</v>
       </c>
       <c r="M228" t="n">
-        <v>355.7544444444445</v>
+        <v>355.75</v>
       </c>
       <c r="N228" t="n">
         <v>350.46</v>
@@ -12368,7 +12368,7 @@
         <v>346.84</v>
       </c>
       <c r="M229" t="n">
-        <v>354.7888888888889</v>
+        <v>354.79</v>
       </c>
       <c r="N229" t="n">
         <v>347.88</v>
@@ -12422,7 +12422,7 @@
         <v>353.43</v>
       </c>
       <c r="M230" t="n">
-        <v>369.2055555555555</v>
+        <v>369.21</v>
       </c>
       <c r="N230" t="n">
         <v>356.01</v>
@@ -12476,7 +12476,7 @@
         <v>343.91</v>
       </c>
       <c r="M231" t="n">
-        <v>362.6466666666667</v>
+        <v>362.65</v>
       </c>
       <c r="N231" t="n">
         <v>352.75</v>
@@ -12530,7 +12530,7 @@
         <v>348.53</v>
       </c>
       <c r="M232" t="n">
-        <v>356.8833333333333</v>
+        <v>356.88</v>
       </c>
       <c r="N232" t="n">
         <v>338.58</v>
@@ -12630,7 +12630,7 @@
         <v>349.97</v>
       </c>
       <c r="M234" t="n">
-        <v>372.6177777777777</v>
+        <v>372.62</v>
       </c>
       <c r="N234" t="n">
         <v>360.56</v>
@@ -12684,7 +12684,7 @@
         <v>356.59</v>
       </c>
       <c r="M235" t="n">
-        <v>365.6266666666667</v>
+        <v>365.63</v>
       </c>
       <c r="N235" t="n">
         <v>358.69</v>
@@ -12738,7 +12738,7 @@
         <v>341.14</v>
       </c>
       <c r="M236" t="n">
-        <v>353.7811111111111</v>
+        <v>353.78</v>
       </c>
       <c r="N236" t="n">
         <v>344.91</v>
@@ -12792,7 +12792,7 @@
         <v>364.81</v>
       </c>
       <c r="M237" t="n">
-        <v>372.5211111111111</v>
+        <v>372.52</v>
       </c>
       <c r="N237" t="n">
         <v>366.07</v>
@@ -12846,7 +12846,7 @@
         <v>359.61</v>
       </c>
       <c r="M238" t="n">
-        <v>375.1088888888889</v>
+        <v>375.11</v>
       </c>
       <c r="N238" t="n">
         <v>365.29</v>
@@ -12900,7 +12900,7 @@
         <v>358.45</v>
       </c>
       <c r="M239" t="n">
-        <v>364.1455555555555</v>
+        <v>364.15</v>
       </c>
       <c r="N239" t="n">
         <v>356.63</v>
@@ -12948,7 +12948,7 @@
         <v>353.34</v>
       </c>
       <c r="M240" t="n">
-        <v>355.0333333333333</v>
+        <v>355.03</v>
       </c>
       <c r="N240" t="n">
         <v>347.29</v>
@@ -13002,7 +13002,7 @@
         <v>351.82</v>
       </c>
       <c r="M241" t="n">
-        <v>360.6211111111111</v>
+        <v>360.62</v>
       </c>
       <c r="N241" t="n">
         <v>355.75</v>
@@ -13054,7 +13054,7 @@
         <v>349.7</v>
       </c>
       <c r="M242" t="n">
-        <v>355.1544444444444</v>
+        <v>355.15</v>
       </c>
       <c r="N242" t="n">
         <v>346.57</v>
@@ -13106,7 +13106,7 @@
         <v>340.71</v>
       </c>
       <c r="M243" t="n">
-        <v>353.5688888888889</v>
+        <v>353.57</v>
       </c>
       <c r="N243" t="n">
         <v>346.32</v>
@@ -13160,7 +13160,7 @@
         <v>331.67</v>
       </c>
       <c r="M244" t="n">
-        <v>344.1033333333333</v>
+        <v>344.1</v>
       </c>
       <c r="N244" t="n">
         <v>328.8</v>
@@ -13210,7 +13210,7 @@
         <v>329.23</v>
       </c>
       <c r="M245" t="n">
-        <v>339.8055555555555</v>
+        <v>339.81</v>
       </c>
       <c r="N245" t="n">
         <v>326.44</v>
@@ -13318,7 +13318,7 @@
         <v>345.84</v>
       </c>
       <c r="M247" t="n">
-        <v>349.9788888888889</v>
+        <v>349.98</v>
       </c>
       <c r="N247" t="n">
         <v>344.69</v>
@@ -13364,7 +13364,7 @@
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
-        <v>323.1633333333333</v>
+        <v>323.16</v>
       </c>
       <c r="N248" t="n">
         <v>314</v>
@@ -13418,7 +13418,7 @@
         <v>333.11</v>
       </c>
       <c r="M249" t="n">
-        <v>345.5655555555555</v>
+        <v>345.57</v>
       </c>
       <c r="N249" t="n">
         <v>344.96</v>
@@ -13472,7 +13472,7 @@
         <v>350.91</v>
       </c>
       <c r="M250" t="n">
-        <v>358.7522222222222</v>
+        <v>358.75</v>
       </c>
       <c r="N250" t="n">
         <v>351.49</v>
@@ -13526,7 +13526,7 @@
         <v>338.87</v>
       </c>
       <c r="M251" t="n">
-        <v>351.7533333333333</v>
+        <v>351.75</v>
       </c>
       <c r="N251" t="n">
         <v>342.28</v>
@@ -13634,7 +13634,7 @@
         <v>361.81</v>
       </c>
       <c r="M253" t="n">
-        <v>376.2155555555556</v>
+        <v>376.22</v>
       </c>
       <c r="N253" t="n">
         <v>362.83</v>
@@ -13688,7 +13688,7 @@
         <v>345.72</v>
       </c>
       <c r="M254" t="n">
-        <v>345.2922222222222</v>
+        <v>345.29</v>
       </c>
       <c r="N254" t="n">
         <v>349.11</v>
@@ -13742,7 +13742,7 @@
         <v>345.02</v>
       </c>
       <c r="M255" t="n">
-        <v>354.0077777777778</v>
+        <v>354.01</v>
       </c>
       <c r="N255" t="n">
         <v>352.51</v>
@@ -13796,7 +13796,7 @@
         <v>354.25</v>
       </c>
       <c r="M256" t="n">
-        <v>365.4077777777778</v>
+        <v>365.41</v>
       </c>
       <c r="N256" t="n">
         <v>360.45</v>
@@ -13850,7 +13850,7 @@
         <v>353.47</v>
       </c>
       <c r="M257" t="n">
-        <v>362.1511111111111</v>
+        <v>362.15</v>
       </c>
       <c r="N257" t="n">
         <v>357.31</v>
@@ -13904,7 +13904,7 @@
         <v>337.7</v>
       </c>
       <c r="M258" t="n">
-        <v>357.1322222222223</v>
+        <v>357.13</v>
       </c>
       <c r="N258" t="n">
         <v>338.5</v>
@@ -13958,7 +13958,7 @@
         <v>344.05</v>
       </c>
       <c r="M259" t="n">
-        <v>358.8244444444445</v>
+        <v>358.82</v>
       </c>
       <c r="N259" t="n">
         <v>352.03</v>
@@ -14012,7 +14012,7 @@
         <v>353.55</v>
       </c>
       <c r="M260" t="n">
-        <v>359.1522222222222</v>
+        <v>359.15</v>
       </c>
       <c r="N260" t="n">
         <v>355.91</v>
@@ -14066,7 +14066,7 @@
         <v>351.92</v>
       </c>
       <c r="M261" t="n">
-        <v>364.2966666666667</v>
+        <v>364.3</v>
       </c>
       <c r="N261" t="n">
         <v>358.27</v>
@@ -14120,7 +14120,7 @@
         <v>359.48</v>
       </c>
       <c r="M262" t="n">
-        <v>371.7677777777778</v>
+        <v>371.77</v>
       </c>
       <c r="N262" t="n">
         <v>357.32</v>
@@ -14202,7 +14202,7 @@
         <v>359.39</v>
       </c>
       <c r="M264" t="n">
-        <v>369.2688888888889</v>
+        <v>369.27</v>
       </c>
       <c r="N264" t="n">
         <v>359.11</v>
@@ -14292,7 +14292,7 @@
         <v>349.22</v>
       </c>
       <c r="M266" t="n">
-        <v>359.5966666666667</v>
+        <v>359.6</v>
       </c>
       <c r="N266" t="n">
         <v>347.39</v>
@@ -14382,7 +14382,7 @@
         <v>345.53</v>
       </c>
       <c r="M268" t="n">
-        <v>362.7088888888889</v>
+        <v>362.71</v>
       </c>
       <c r="N268" t="n">
         <v>347.03</v>
@@ -14478,7 +14478,7 @@
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
-        <v>339.9577777777778</v>
+        <v>339.96</v>
       </c>
       <c r="N270" t="n">
         <v>335.46</v>
@@ -14528,7 +14528,7 @@
         <v>332.76</v>
       </c>
       <c r="M271" t="n">
-        <v>338.6666666666667</v>
+        <v>338.67</v>
       </c>
       <c r="N271" t="n">
         <v>338.69</v>
@@ -14640,7 +14640,7 @@
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
-        <v>334.1388888888889</v>
+        <v>334.14</v>
       </c>
       <c r="N274" t="n">
         <v>315.7</v>
@@ -14688,7 +14688,7 @@
         <v>328.97</v>
       </c>
       <c r="M275" t="n">
-        <v>343.6922222222223</v>
+        <v>343.69</v>
       </c>
       <c r="N275" t="n">
         <v>327.42</v>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
-        <v>361.1311111111111</v>
+        <v>361.13</v>
       </c>
       <c r="N276" t="n">
         <v>347.54</v>
@@ -14786,7 +14786,7 @@
         <v>347.8</v>
       </c>
       <c r="M277" t="n">
-        <v>360.4544444444445</v>
+        <v>360.45</v>
       </c>
       <c r="N277" t="n">
         <v>348.71</v>
@@ -14830,7 +14830,7 @@
         <v>345.3</v>
       </c>
       <c r="M278" t="n">
-        <v>357.7611111111111</v>
+        <v>357.76</v>
       </c>
       <c r="N278" t="n">
         <v>345.87</v>
@@ -14868,7 +14868,7 @@
         <v>350.38</v>
       </c>
       <c r="M279" t="n">
-        <v>359.5544444444445</v>
+        <v>359.55</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -14918,7 +14918,7 @@
         <v>343.25</v>
       </c>
       <c r="M280" t="n">
-        <v>357.6333333333333</v>
+        <v>357.63</v>
       </c>
       <c r="N280" t="n">
         <v>346.13</v>
@@ -14972,7 +14972,7 @@
         <v>333.12</v>
       </c>
       <c r="M281" t="n">
-        <v>348.0988888888889</v>
+        <v>348.1</v>
       </c>
       <c r="N281" t="n">
         <v>339.3</v>
@@ -15026,7 +15026,7 @@
         <v>336.53</v>
       </c>
       <c r="M282" t="n">
-        <v>345.3433333333333</v>
+        <v>345.34</v>
       </c>
       <c r="N282" t="n">
         <v>339.14</v>
@@ -15080,7 +15080,7 @@
         <v>344.56</v>
       </c>
       <c r="M283" t="n">
-        <v>353.5388888888889</v>
+        <v>353.54</v>
       </c>
       <c r="N283" t="n">
         <v>346</v>
@@ -15134,7 +15134,7 @@
         <v>335.82</v>
       </c>
       <c r="M284" t="n">
-        <v>348.1655555555556</v>
+        <v>348.17</v>
       </c>
       <c r="N284" t="n">
         <v>337.8</v>
@@ -15188,7 +15188,7 @@
         <v>349.97</v>
       </c>
       <c r="M285" t="n">
-        <v>361.5322222222222</v>
+        <v>361.53</v>
       </c>
       <c r="N285" t="n">
         <v>353.4</v>
@@ -15242,7 +15242,7 @@
         <v>353.58</v>
       </c>
       <c r="M286" t="n">
-        <v>363.8477777777778</v>
+        <v>363.85</v>
       </c>
       <c r="N286" t="n">
         <v>356</v>
@@ -15296,7 +15296,7 @@
         <v>344.2</v>
       </c>
       <c r="M287" t="n">
-        <v>353.8444444444444</v>
+        <v>353.84</v>
       </c>
       <c r="N287" t="n">
         <v>348.13</v>
@@ -15350,7 +15350,7 @@
         <v>352.04</v>
       </c>
       <c r="M288" t="n">
-        <v>363.4588888888889</v>
+        <v>363.46</v>
       </c>
       <c r="N288" t="n">
         <v>354.57</v>
@@ -15404,7 +15404,7 @@
         <v>350.73</v>
       </c>
       <c r="M289" t="n">
-        <v>360.1088888888889</v>
+        <v>360.11</v>
       </c>
       <c r="N289" t="n">
         <v>351.97</v>
@@ -15448,7 +15448,7 @@
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
-        <v>361.2555555555555</v>
+        <v>361.26</v>
       </c>
       <c r="N290" t="n">
         <v>353.21</v>
@@ -15544,7 +15544,7 @@
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
-        <v>354.9888888888889</v>
+        <v>354.99</v>
       </c>
       <c r="N292" t="n">
         <v>342.24</v>
@@ -15596,7 +15596,7 @@
         <v>355.98</v>
       </c>
       <c r="M293" t="n">
-        <v>368.7755555555556</v>
+        <v>368.78</v>
       </c>
       <c r="N293" t="n">
         <v>358.2</v>
@@ -15650,7 +15650,7 @@
         <v>336.94</v>
       </c>
       <c r="M294" t="n">
-        <v>339.4677777777778</v>
+        <v>339.47</v>
       </c>
       <c r="N294" t="n">
         <v>340.03</v>
@@ -15692,7 +15692,7 @@
         <v>367.13</v>
       </c>
       <c r="M295" t="n">
-        <v>377.4488888888889</v>
+        <v>377.45</v>
       </c>
       <c r="N295" t="n">
         <v>362.94</v>
@@ -15746,7 +15746,7 @@
         <v>358.56</v>
       </c>
       <c r="M296" t="n">
-        <v>365.0433333333333</v>
+        <v>365.04</v>
       </c>
       <c r="N296" t="n">
         <v>359.65</v>
@@ -15848,7 +15848,7 @@
         <v>364.09</v>
       </c>
       <c r="M298" t="n">
-        <v>376.2888888888889</v>
+        <v>376.29</v>
       </c>
       <c r="N298" t="n">
         <v>361.19</v>
@@ -15902,7 +15902,7 @@
         <v>356.56</v>
       </c>
       <c r="M299" t="n">
-        <v>370.4855555555556</v>
+        <v>370.49</v>
       </c>
       <c r="N299" t="n">
         <v>362.04</v>
@@ -15956,7 +15956,7 @@
         <v>361.04</v>
       </c>
       <c r="M300" t="n">
-        <v>371.8555555555556</v>
+        <v>371.86</v>
       </c>
       <c r="N300" t="n">
         <v>361.65</v>
@@ -16064,7 +16064,7 @@
         <v>364.53</v>
       </c>
       <c r="M302" t="n">
-        <v>373.1166666666667</v>
+        <v>373.12</v>
       </c>
       <c r="N302" t="n">
         <v>362.73</v>
@@ -16118,7 +16118,7 @@
         <v>349.05</v>
       </c>
       <c r="M303" t="n">
-        <v>349.0988888888889</v>
+        <v>349.1</v>
       </c>
       <c r="N303" t="n">
         <v>347.95</v>
@@ -16226,7 +16226,7 @@
         <v>349.74</v>
       </c>
       <c r="M305" t="n">
-        <v>365.6533333333333</v>
+        <v>365.65</v>
       </c>
       <c r="N305" t="n">
         <v>355.97</v>
@@ -16280,7 +16280,7 @@
         <v>359.04</v>
       </c>
       <c r="M306" t="n">
-        <v>372.3855555555555</v>
+        <v>372.39</v>
       </c>
       <c r="N306" t="n">
         <v>360.36</v>
@@ -16334,7 +16334,7 @@
         <v>355.22</v>
       </c>
       <c r="M307" t="n">
-        <v>368.7966666666667</v>
+        <v>368.8</v>
       </c>
       <c r="N307" t="n">
         <v>360.56</v>
@@ -16388,7 +16388,7 @@
         <v>359.26</v>
       </c>
       <c r="M308" t="n">
-        <v>362.6022222222222</v>
+        <v>362.6</v>
       </c>
       <c r="N308" t="n">
         <v>357.09</v>
@@ -16442,7 +16442,7 @@
         <v>321.26</v>
       </c>
       <c r="M309" t="n">
-        <v>332.8588888888889</v>
+        <v>332.86</v>
       </c>
       <c r="N309" t="n">
         <v>325.67</v>
@@ -16496,7 +16496,7 @@
         <v>345.38</v>
       </c>
       <c r="M310" t="n">
-        <v>361.2888888888889</v>
+        <v>361.29</v>
       </c>
       <c r="N310" t="n">
         <v>343.49</v>
@@ -16550,7 +16550,7 @@
         <v>344.46</v>
       </c>
       <c r="M311" t="n">
-        <v>349.9633333333333</v>
+        <v>349.96</v>
       </c>
       <c r="N311" t="n">
         <v>343.01</v>
@@ -16604,7 +16604,7 @@
         <v>350.87</v>
       </c>
       <c r="M312" t="n">
-        <v>363.2155555555556</v>
+        <v>363.22</v>
       </c>
       <c r="N312" t="n">
         <v>351.93</v>
@@ -16648,7 +16648,7 @@
         <v>332.44</v>
       </c>
       <c r="M313" t="n">
-        <v>340.4277777777777</v>
+        <v>340.43</v>
       </c>
       <c r="N313" t="n">
         <v>338.11</v>
@@ -16702,7 +16702,7 @@
         <v>349.08</v>
       </c>
       <c r="M314" t="n">
-        <v>360.4688888888889</v>
+        <v>360.47</v>
       </c>
       <c r="N314" t="n">
         <v>345.85</v>
@@ -16756,7 +16756,7 @@
         <v>339.62</v>
       </c>
       <c r="M315" t="n">
-        <v>343.0222222222222</v>
+        <v>343.02</v>
       </c>
       <c r="N315" t="n">
         <v>338.54</v>
@@ -16810,7 +16810,7 @@
         <v>336.33</v>
       </c>
       <c r="M316" t="n">
-        <v>341.7477777777778</v>
+        <v>341.75</v>
       </c>
       <c r="N316" t="n">
         <v>337.99</v>
@@ -16864,7 +16864,7 @@
         <v>329.52</v>
       </c>
       <c r="M317" t="n">
-        <v>347.6888888888889</v>
+        <v>347.69</v>
       </c>
       <c r="N317" t="n">
         <v>330.6</v>
@@ -16918,7 +16918,7 @@
         <v>327.32</v>
       </c>
       <c r="M318" t="n">
-        <v>340.7566666666667</v>
+        <v>340.76</v>
       </c>
       <c r="N318" t="n">
         <v>334.77</v>
@@ -16972,7 +16972,7 @@
         <v>319.45</v>
       </c>
       <c r="M319" t="n">
-        <v>331.7844444444444</v>
+        <v>331.78</v>
       </c>
       <c r="N319" t="n">
         <v>320.72</v>
@@ -17026,7 +17026,7 @@
         <v>325.68</v>
       </c>
       <c r="M320" t="n">
-        <v>343.0122222222222</v>
+        <v>343.01</v>
       </c>
       <c r="N320" t="n">
         <v>330.81</v>
@@ -17080,7 +17080,7 @@
         <v>314.26</v>
       </c>
       <c r="M321" t="n">
-        <v>334.1066666666667</v>
+        <v>334.11</v>
       </c>
       <c r="N321" t="n">
         <v>319.09</v>
@@ -21464,7 +21464,7 @@
         <v>0.0469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2127480555471402</v>
+        <v>0.2128005758312356</v>
       </c>
       <c r="J13" t="n">
         <v>320</v>
@@ -21473,19 +21473,19 @@
         <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0165683610923596</v>
+        <v>0.0165754947563449</v>
       </c>
       <c r="M13" t="n">
-        <v>9.292349587622381</v>
+        <v>9.292604573036675</v>
       </c>
       <c r="N13" t="n">
-        <v>137.6223645367875</v>
+        <v>137.6300648124846</v>
       </c>
       <c r="O13" t="n">
-        <v>11.73125588062879</v>
+        <v>11.73158407089531</v>
       </c>
       <c r="P13" t="n">
-        <v>352.630777758839</v>
+        <v>352.6299462729875</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-35.435827424672176,174.42226410494493</t>
+          <t>-35.43582741946355,174.4222640944907</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -21914,7 +21914,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-35.435898933803536,174.42240763104843</t>
+          <t>-35.435898954637985,174.4224076728654</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -22078,7 +22078,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-35.43582595583973,174.42226115685511</t>
+          <t>-35.43582596625699,174.42226117776354</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-35.43576882757525,174.42214649506045</t>
+          <t>-35.43576882236662,174.42214648460623</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -22242,7 +22242,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-35.43592436744773,174.42245867910665</t>
+          <t>-35.43592436223913,174.42245866865244</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -22324,7 +22324,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-35.435866629969965,174.4223427938921</t>
+          <t>-35.4358666091355,174.4223427520752</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -22406,7 +22406,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-35.435795365564125,174.42219975924957</t>
+          <t>-35.435795355146865,174.42219973834113</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -22488,7 +22488,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-35.435842024445876,174.42229340812716</t>
+          <t>-35.43584204528036,174.42229344994408</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-35.43592823223463,174.42246643615618</t>
+          <t>-35.435928253069065,174.42246647797313</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -22734,7 +22734,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-35.43583996703975,174.42228927870914</t>
+          <t>-35.43583998266563,174.42228931007182</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-35.4358013659068,174.42221180250178</t>
+          <t>-35.435801355489545,174.42221178159335</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-35.435850170730944,174.4223097585338</t>
+          <t>-35.43585015510508,174.42230972717113</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-35.43586705707668,174.42234365113893</t>
+          <t>-35.43586707791115,174.42234369295585</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -23198,7 +23198,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-35.435774692498946,174.42215826649556</t>
+          <t>-35.43577468208167,174.42215824558713</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-35.435816319880374,174.42224181655214</t>
+          <t>-35.43581630946313,174.4222417956437</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -23362,7 +23362,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-35.435770608928756,174.42215007039846</t>
+          <t>-35.43577060372012,174.42215005994427</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-35.43573869039083,174.42208600705547</t>
+          <t>-35.435738679973554,174.4220859861471</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -23518,7 +23518,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-35.43585931706873,174.4223281161553</t>
+          <t>-35.43585929623425,174.42232807433842</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -23600,7 +23600,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-35.435835883478816,174.42228108259903</t>
+          <t>-35.43583590431332,174.42228112441592</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-35.43581206963998,174.42223328591186</t>
+          <t>-35.4358120904745,174.42223332772872</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -23834,7 +23834,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-35.43580898613186,174.4222270970165</t>
+          <t>-35.43580899654911,174.42222711792493</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -23916,7 +23916,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-35.435732294178266,174.4220731693028</t>
+          <t>-35.435732304595554,174.42207319021122</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -24072,7 +24072,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-35.43584948840152,174.42230838903032</t>
+          <t>-35.435849498818776,174.42230840993875</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-35.43580105859762,174.42221118570322</t>
+          <t>-35.43580107422351,174.42221121706586</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -24306,7 +24306,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-35.4358544418002,174.42231833099893</t>
+          <t>-35.43585442096572,174.42231828918204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-35.43592996670081,174.42246991741987</t>
+          <t>-35.43592998753524,174.42246995923685</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -24552,7 +24552,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-35.435769364064775,174.4221475718435</t>
+          <t>-35.43576938489931,174.42214761366031</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -24634,7 +24634,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-35.435834258388084,174.42227782088196</t>
+          <t>-35.43583426359669,174.42227783133617</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-35.435767389991646,174.42214360970007</t>
+          <t>-35.435767369157105,174.42214356788324</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-35.435752545374115,174.4221138152237</t>
+          <t>-35.43575255579138,174.4221138361321</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -25038,7 +25038,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-35.43576050938215,174.42212979969756</t>
+          <t>-35.435760525008064,174.42212983106018</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-35.43573030968532,174.42206918625453</t>
+          <t>-35.43573028885075,174.42206914443776</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -25290,7 +25290,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-35.43574587831531,174.42210043384836</t>
+          <t>-35.43574589914987,174.42210047566516</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-35.43578564625642,174.42218025169367</t>
+          <t>-35.435785651465046,174.42218026214786</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -25454,7 +25454,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-35.43588421946913,174.4223780978324</t>
+          <t>-35.43588423509498,174.4223781291951</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-35.4357743747722,174.422157628789</t>
+          <t>-35.43577435393766,174.42215758697216</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-35.43578701612688,174.42218300115061</t>
+          <t>-35.43578701091825,174.42218299069643</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-35.43579154763711,174.42219209631304</t>
+          <t>-35.43579155805437,174.4221921172215</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-35.43579111011202,174.42219121815938</t>
+          <t>-35.435791089277494,174.42219117634255</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -25820,7 +25820,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-35.43567069149482,174.42194952762924</t>
+          <t>-35.435670707120785,174.4219495589918</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -25972,7 +25972,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-35.43578564104779,174.42218024123946</t>
+          <t>-35.435785651465046,174.42218026214786</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-35.43580685059394,174.42222281078858</t>
+          <t>-35.43580684017668,174.42222278988015</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-35.435672561401496,174.42195328067976</t>
+          <t>-35.43567258223611,174.42195332249648</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-35.43582875287166,174.42226677077093</t>
+          <t>-35.43582873203716,174.42226672895404</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -26498,7 +26498,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-35.435782198141105,174.42217333100774</t>
+          <t>-35.435782182515204,174.42217329964512</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-35.43575587369428,174.422120495458</t>
+          <t>-35.43575588411156,174.4221205163664</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -26700,7 +26700,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-35.43586816130375,174.4223458674356</t>
+          <t>-35.43586815609515,174.42234585698137</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -26778,7 +26778,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-35.43583456048829,174.4222784272268</t>
+          <t>-35.43583454486241,174.4222783958641</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-35.43576886403571,174.4221465682399</t>
+          <t>-35.435768869244356,174.42214657869408</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-35.43583838361823,174.42228610062554</t>
+          <t>-35.43583838882686,174.42228611107976</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-35.43588625603764,174.42238218543795</t>
+          <t>-35.43588625082902,174.4223821749837</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-35.43577870314767,174.42216631623455</t>
+          <t>-35.43577871356493,174.42216633714295</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-35.43583389378436,174.4222770890865</t>
+          <t>-35.43583388857575,174.42227707863225</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -27500,7 +27500,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-35.435766910797106,174.42214264791326</t>
+          <t>-35.43576690037982,174.42214262700486</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-35.4357981938508,174.42220543588644</t>
+          <t>-35.435798214685335,174.4222054777033</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -27636,7 +27636,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-35.43586566116693,174.42234084940546</t>
+          <t>-35.43586567158416,174.42234087031392</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-35.43574382611098,174.4220963148942</t>
+          <t>-35.43574383652825,174.4220963358026</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -27800,7 +27800,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-35.43579545411086,174.42219993697114</t>
+          <t>-35.43579544890223,174.42219992651692</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -27882,7 +27882,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-35.435758441552935,174.42212564937935</t>
+          <t>-35.43575846238748,174.42212569119616</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -27964,7 +27964,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-35.4357696140793,174.42214807364536</t>
+          <t>-35.43576961928793,174.42214808409955</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -28042,7 +28042,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-35.43574236248293,174.42209337726456</t>
+          <t>-35.43574238331748,174.42209341908136</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-35.43584127440416,174.42229190271905</t>
+          <t>-35.435841295238646,174.42229194453594</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -28206,7 +28206,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-35.435843831837964,174.4222970357427</t>
+          <t>-35.435843826629345,174.4222970252885</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-35.435904262213754,174.42241832573424</t>
+          <t>-35.435904251796536,174.42241830482578</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -28370,7 +28370,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-35.43582225250654,174.42225372390573</t>
+          <t>-35.4358222629238,174.42225374481416</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-35.435806329730994,174.42222176536717</t>
+          <t>-35.435806324522375,174.42222175491295</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-35.435686359121384,174.42198097380714</t>
+          <t>-35.43568636433004,174.42198098426132</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -28744,7 +28744,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-35.43577273405209,174.4221543357142</t>
+          <t>-35.435772713217546,174.42215429389736</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -28826,7 +28826,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-35.43574913892395,174.42210697817697</t>
+          <t>-35.43574913371531,174.42210696772275</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-35.43585024365164,174.42230990489296</t>
+          <t>-35.435850248860255,174.4223099153472</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-35.435907330085854,174.42242448328125</t>
+          <t>-35.43590734571168,174.42242451464395</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -29072,7 +29072,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-35.43587896918446,174.42236755996532</t>
+          <t>-35.4358789848103,174.422367591328</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -29154,7 +29154,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-35.43578277629944,174.4221744914248</t>
+          <t>-35.43578279192535,174.42217452278746</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -29236,7 +29236,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-35.43574643043118,174.4221015419934</t>
+          <t>-35.43574641480527,174.42210151063082</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-35.43571747558589,174.4220434271229</t>
+          <t>-35.43571749121181,174.4220434584855</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-35.43578858392533,174.42218614786762</t>
+          <t>-35.435788604759864,174.42218618968445</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-35.435844133938076,174.42229764208767</t>
+          <t>-35.43584415477257,174.42229768390456</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -29564,7 +29564,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-35.4357107772671,174.42202998303387</t>
+          <t>-35.43571078768439,174.42203000394224</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-35.43579599059988,174.4222010137549</t>
+          <t>-35.4357960114344,174.42220105557178</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-35.435921440209874,174.42245280382167</t>
+          <t>-35.43592145583571,174.4224528351844</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -29922,7 +29922,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-35.43592438828217,174.42245872092366</t>
+          <t>-35.4359244091166,174.4224587627406</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -30004,7 +30004,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-35.435779588615496,174.42216809344976</t>
+          <t>-35.435779604241404,174.42216812481237</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-35.43585169164836,174.42231281116761</t>
+          <t>-35.435851702065605,174.42231283207607</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -30152,7 +30152,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-35.43580963721046,174.42222840379335</t>
+          <t>-35.43580965283635,174.422228435156</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-35.435820538868384,174.42225028446802</t>
+          <t>-35.43582052845113,174.4222502635596</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -30296,7 +30296,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-35.43580427232234,174.42221763595273</t>
+          <t>-35.435804261905076,174.4222176150443</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -30378,7 +30378,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-35.43581337179704,174.42223589946576</t>
+          <t>-35.435813356171145,174.42223586810314</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -30460,7 +30460,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-35.435809668462234,174.42222846651865</t>
+          <t>-35.43580965283635,174.422228435156</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -30542,7 +30542,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-35.435808303801466,174.4222257275144</t>
+          <t>-35.43580829338421,174.42222570660596</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -30624,7 +30624,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-35.43579829802343,174.4222056449707</t>
+          <t>-35.43579830844068,174.4222056658791</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -30706,7 +30706,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-35.43576126463459,174.42213131555692</t>
+          <t>-35.43576127505188,174.42213133646533</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -30788,7 +30788,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-35.43575352459824,174.42211578061338</t>
+          <t>-35.43575354022414,174.422115811976</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -30952,7 +30952,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-35.43582275774332,174.42225473796486</t>
+          <t>-35.43582277857782,174.42225477978175</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-35.435716142172616,174.42204075084996</t>
+          <t>-35.43571613175533,174.42204072994156</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-35.43579518326204,174.42219939335214</t>
+          <t>-35.435795167636144,174.42219936198953</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -31198,7 +31198,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-35.43574070092642,174.42209004237554</t>
+          <t>-35.435740695717776,174.42209003192136</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -31280,7 +31280,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-35.43575210263978,174.42211292661668</t>
+          <t>-35.43575208701387,174.4221128952541</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-35.43574887328332,174.42210644501282</t>
+          <t>-35.43574885244877,174.42210640319598</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -31444,7 +31444,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-35.435774020585015,174.42215691790298</t>
+          <t>-35.435774025793634,174.4221569283572</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -31526,7 +31526,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-35.43578212522024,174.42217318464884</t>
+          <t>-35.4357821356375,174.42217320555724</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -31686,7 +31686,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-35.43572563753209,174.42205980884245</t>
+          <t>-35.43572564794936,174.42205982975082</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-35.4358172522247,174.42224368785693</t>
+          <t>-35.43581724701607,174.42224367740275</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -31850,7 +31850,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-35.43581583547802,174.42224084431</t>
+          <t>-35.435815840686644,174.42224085476423</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -31932,7 +31932,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-35.435859238939436,174.4223279593419</t>
+          <t>-35.43585924935667,174.42232798025037</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -32014,7 +32014,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-35.4358177314184,174.42224464964488</t>
+          <t>-35.43581771579253,174.42224461828224</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-35.435764488781025,174.42213778670856</t>
+          <t>-35.43576450961558,174.42213782852536</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -32178,7 +32178,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-35.43581699700196,174.4222431756003</t>
+          <t>-35.43581701262784,174.42224320696297</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -32260,7 +32260,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-35.4358205232425,174.42225025310537</t>
+          <t>-35.43582052845113,174.4222502635596</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-35.43584664970264,174.42230269147785</t>
+          <t>-35.4358466392854,174.4223026705694</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -32424,7 +32424,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-35.4358676612764,174.42234486382955</t>
+          <t>-35.435867640441934,174.42234482201266</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -32506,7 +32506,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-35.43584703514067,174.42230346509047</t>
+          <t>-35.43584701430618,174.42230342327358</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -32588,7 +32588,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-35.4359216329284,174.4224531906287</t>
+          <t>-35.435921643345615,174.42245321153715</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-35.43593413879473,174.42247829127098</t>
+          <t>-35.435934159629156,174.42247833308795</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -32752,7 +32752,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-35.435765311745655,174.42213943847273</t>
+          <t>-35.43576530653702,174.4221394280185</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -32834,7 +32834,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-35.43576417626281,174.42213715945635</t>
+          <t>-35.43576418147146,174.42213716991057</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -32916,7 +32916,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-35.435765327371556,174.42213946983532</t>
+          <t>-35.43576530653702,174.4221394280185</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -32998,7 +32998,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-35.43574947748553,174.42210765769994</t>
+          <t>-35.43574946185961,174.42210762633732</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -33068,7 +33068,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-35.43584201402863,174.42229338721873</t>
+          <t>-35.43584199840275,174.42229335585608</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -33150,7 +33150,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-35.435794412384574,174.4221978461289</t>
+          <t>-35.43579441759321,174.42219785658313</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -33232,7 +33232,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-35.43585064471549,174.4223107098683</t>
+          <t>-35.43585062388102,174.4223106680514</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -33314,7 +33314,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-35.43582162226273,174.42225245894534</t>
+          <t>-35.435821606636864,174.42225242758266</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-35.435842024445876,174.42229340812716</t>
+          <t>-35.43584204528036,174.42229344994408</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -33458,7 +33458,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-35.43580532967416,174.4222197581581</t>
+          <t>-35.43580534009141,174.42221977906652</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -33622,7 +33622,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-35.435771046454164,174.4221509485517</t>
+          <t>-35.435771025619616,174.42215090673486</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -33704,7 +33704,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-35.435816017779985,174.4222412102076</t>
+          <t>-35.435816028197245,174.42224123111603</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -33782,7 +33782,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-35.435839711817216,174.42228876645223</t>
+          <t>-35.435839701399956,174.4222887455438</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -33864,7 +33864,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-35.435852212510476,174.4223138565902</t>
+          <t>-35.4358522177191,174.4223138670444</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-35.435796886484454,174.4222028118793</t>
+          <t>-35.43579690211033,174.42220284324193</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -34066,7 +34066,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-35.43575308186393,174.42211489200633</t>
+          <t>-35.435753071446655,174.42211487109796</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -34148,7 +34148,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-35.43579489678731,174.42219881837053</t>
+          <t>-35.43579488637005,174.4221987974621</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -34230,7 +34230,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-35.435761655282406,174.42213209962213</t>
+          <t>-35.43576165007377,174.42213208916792</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -34312,7 +34312,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-35.435807225615235,174.422223563492</t>
+          <t>-35.43580721519799,174.42222354258357</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -34394,7 +34394,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-35.43574362818263,174.42209591763466</t>
+          <t>-35.435743649017205,174.42209595945144</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-35.43587677635694,174.4223631587335</t>
+          <t>-35.43587678156556,174.42236316918775</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -34558,7 +34558,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-35.435741430136176,174.42209150596318</t>
+          <t>-35.43574144576209,174.4220915373258</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -34640,7 +34640,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-35.435855853336356,174.4223211640943</t>
+          <t>-35.43585587417084,174.4223212059112</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-35.435800516900066,174.42221009846511</t>
+          <t>-35.435800511691426,174.4222100880109</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-35.43576833275482,174.42214550191102</t>
+          <t>-35.43576835358937,174.42214554372785</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -34978,7 +34978,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-35.435840649369396,174.4222906482123</t>
+          <t>-35.43584063895214,174.42229062730385</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -35130,7 +35130,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-35.43574109157451,174.42209082644035</t>
+          <t>-35.43574107073993,174.42209078462355</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -35212,7 +35212,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-35.43579954809479,174.42220815398161</t>
+          <t>-35.43579952726026,174.42220811216475</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -35294,7 +35294,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-35.435918460885624,174.4224468239947</t>
+          <t>-35.43591845567702,174.42244681354043</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
@@ -35372,7 +35372,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-35.4356797128819,174.42196763427012</t>
+          <t>-35.43567970767325,174.4219676238159</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-35.43581351763863,174.42223619218382</t>
+          <t>-35.43581349680411,174.42223615036696</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -35664,7 +35664,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-35.435804501502055,174.42221809593812</t>
+          <t>-35.435804496293414,174.4222180854839</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -35746,7 +35746,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-35.435805209875674,174.4222195177112</t>
+          <t>-35.435805199458414,174.42221949680277</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -35824,7 +35824,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-35.43577662490249,174.42216214500607</t>
+          <t>-35.435776604067954,174.4221621031892</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -35906,7 +35906,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-35.435810944576254,174.42223102780133</t>
+          <t>-35.43581096541076,174.4222310696182</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -35988,7 +35988,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-35.43594924374892,174.42250860859176</t>
+          <t>-35.43594925416612,174.42250862950021</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -36140,7 +36140,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-35.435830752983705,174.42227078519142</t>
+          <t>-35.43583074777507,174.4222707747372</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -36222,7 +36222,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-35.43575013377412,174.4221089749291</t>
+          <t>-35.4357501181482,174.42210894356649</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -36304,7 +36304,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-35.43575900929447,174.42212678888734</t>
+          <t>-35.43575902492039,174.42212682024996</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -36386,7 +36386,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-35.43581067372756,174.42223048418217</t>
+          <t>-35.43581068414481,174.4222305050906</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -36468,7 +36468,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-35.43572539272582,174.42205931749538</t>
+          <t>-35.435725413560384,174.42205935931213</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -36550,7 +36550,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-35.43581859605052,174.42224638504493</t>
+          <t>-35.435818606467784,174.42224640595336</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -36628,7 +36628,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-35.435704610228846,174.4220176052742</t>
+          <t>-35.43570459981154,174.42201758436582</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -36710,7 +36710,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-35.43577606236993,174.42216101595176</t>
+          <t>-35.435776041535405,174.42216097413493</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -36792,7 +36792,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-35.43577608320448,174.4221610577686</t>
+          <t>-35.4357760884131,174.4221610682228</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -36874,7 +36874,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-35.43584686846477,174.42230313055526</t>
+          <t>-35.435846873673384,174.4223031410095</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -36956,7 +36956,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-35.435823554663145,174.42225633746025</t>
+          <t>-35.43582357549764,174.42225637927714</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -37038,7 +37038,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-35.43572029867156,174.42204909329482</t>
+          <t>-35.4357203038802,174.42204910374903</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -37100,7 +37100,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-35.43586776024016,174.42234506245993</t>
+          <t>-35.43586778107462,174.42234510427684</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -37182,7 +37182,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-35.43578880789653,174.42218659739862</t>
+          <t>-35.43578879227063,174.422186566036</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-35.43577116104414,174.4221511785442</t>
+          <t>-35.43577116625278,174.4221511889984</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -37552,7 +37552,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-35.43571488168035,174.42203822093575</t>
+          <t>-35.43571486605441,174.4220381895732</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -37634,7 +37634,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-35.43584459229685,174.42229856205935</t>
+          <t>-35.435844576670995,174.42229853069668</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -37716,7 +37716,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-35.43580879341259,174.42222671021057</t>
+          <t>-35.43580880903848,174.4222267415732</t>
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
@@ -37790,7 +37790,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-35.43579477178015,174.42219856746948</t>
+          <t>-35.43579479261468,174.4221986092863</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -37872,7 +37872,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-35.43569306265449,174.42199442834237</t>
+          <t>-35.43569306786314,174.42199443879656</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -37954,7 +37954,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-35.4357914799249,174.4221919604083</t>
+          <t>-35.43579146429899,174.4221919290457</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -38118,7 +38118,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-35.43577167669908,174.42215221351051</t>
+          <t>-35.43577168190771,174.4221522239647</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -38200,7 +38200,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-35.43578325549373,174.422175453212</t>
+          <t>-35.435783260702365,174.42217546366618</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-35.43576286368626,174.42213452499718</t>
+          <t>-35.435762868894905,174.42213453545136</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-35.435854066779505,174.42231757829464</t>
+          <t>-35.43585404594503,174.42231753647775</t>
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
@@ -38418,7 +38418,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-35.435733794267335,174.42207618011108</t>
+          <t>-35.435733804684624,174.42207620101945</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -38500,7 +38500,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-35.435826638169715,174.4222625263578</t>
+          <t>-35.435826622543836,174.42226249499518</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>-35.435800615864046,174.42221029709515</t>
+          <t>-35.43580060544679,174.42221027618672</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -38664,7 +38664,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-35.435704157076486,174.42201669575982</t>
+          <t>-35.43570417791107,174.42201673757657</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>-35.43575783214228,174.42212442623773</t>
+          <t>-35.43575785297684,174.42212446805453</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -38898,7 +38898,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>-35.43569453670236,174.42199738687682</t>
+          <t>-35.43569452107641,174.42199735551426</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -38980,7 +38980,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>-35.43574146659666,174.42209157914257</t>
+          <t>-35.43574144576209,174.4220915373258</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -39062,7 +39062,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>-35.43569735458163,174.42200304259143</t>
+          <t>-35.43569733374704,174.42200300077465</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -39144,7 +39144,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>-35.43569965680442,174.42200766334187</t>
+          <t>-35.435699677639015,174.42200770515862</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -39226,7 +39226,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>-35.435695666979285,174.42199965543512</t>
+          <t>-35.435695646144694,174.4219996136184</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -39308,7 +39308,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>-35.435746951295194,174.4221025874133</t>
+          <t>-35.435746930460645,174.42210254559652</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -39390,7 +39390,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>-35.43574606061773,174.4221007997453</t>
+          <t>-35.43574603978316,174.42210075792852</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -39472,7 +39472,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-35.435797771951705,174.4222045890953</t>
+          <t>-35.43579779278623,174.42220463091212</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -39550,7 +39550,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>-35.435802298251595,174.42221367380589</t>
+          <t>-35.43580229304297,174.4222136633517</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -39632,7 +39632,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>-35.43573471619703,174.4220780305037</t>
+          <t>-35.43573469536247,174.42207798868694</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -39714,7 +39714,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>-35.43576546279611,174.42213974164463</t>
+          <t>-35.43576544717021,174.422139710282</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>-35.43579247998223,174.42219396761672</t>
+          <t>-35.43579249560812,174.42219399897934</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -39944,7 +39944,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>-35.43571872045211,174.42204592567467</t>
+          <t>-35.43571871003483,174.4220459047663</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -40026,7 +40026,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>-35.43575149322899,174.42211170347525</t>
+          <t>-35.43575147760308,174.42211167211266</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -40108,7 +40108,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>-35.435807022478706,174.42222315577763</t>
+          <t>-35.43580702768733,174.42222316623187</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -40190,7 +40190,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>-35.43571917360424,174.42204683518938</t>
+          <t>-35.43571917881288,174.42204684564356</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -40272,7 +40272,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>-35.435707042667225,174.4220224873802</t>
+          <t>-35.435707037458585,174.422022476926</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -40354,7 +40354,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>-35.43575843634431,174.42212563892514</t>
+          <t>-35.435758415509746,174.42212559710833</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -40424,7 +40424,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>-35.43580115235297,174.42221137387907</t>
+          <t>-35.43580116797885,174.4222114052417</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -40506,7 +40506,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>-35.435774958139326,174.42215879966005</t>
+          <t>-35.435774963347974,174.42215881011424</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -40584,7 +40584,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>-35.43580058461225,174.42221023436989</t>
+          <t>-35.43580060544679,174.42221027618672</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -40662,7 +40662,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>-35.43580801732687,174.4222251525326</t>
+          <t>-35.43580801211825,174.42222514207836</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -40744,7 +40744,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>-35.43585238960359,174.42231421203388</t>
+          <t>-35.435852405229454,174.42231424339653</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -40818,7 +40818,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>-35.435872536542696,174.4223546489891</t>
+          <t>-35.435872515708226,174.4223546071722</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -40982,7 +40982,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>-35.43582484640242,174.4222589301065</t>
+          <t>-35.435824841193785,174.42225891965225</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -41048,7 +41048,7 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr">
         <is>
-          <t>-35.43595055110838,174.42251123260863</t>
+          <t>-35.43595056673418,174.42251126397142</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -41130,7 +41130,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>-35.435845535057496,174.42230045427388</t>
+          <t>-35.43584551422301,174.422300412457</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -41212,7 +41212,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>-35.43578371906211,174.42217638363653</t>
+          <t>-35.43578372947937,174.42217640454493</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -41294,7 +41294,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>-35.43581652822548,174.4222422347208</t>
+          <t>-35.43581654385137,174.4222422660835</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -41458,7 +41458,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>-35.43570185485405,174.42201207500884</t>
+          <t>-35.43570183401946,174.4220120331921</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -41540,7 +41540,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>-35.43584681637854,174.42230302601303</t>
+          <t>-35.43584682679579,174.42230304692148</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -41622,7 +41622,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>-35.43580595991831,174.42222102311797</t>
+          <t>-35.435805949501066,174.42222100220954</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -41704,7 +41704,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>-35.43575251933091,174.4221137629527</t>
+          <t>-35.43575250891363,174.4221137420443</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -41786,7 +41786,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>-35.43576778584801,174.42214440421958</t>
+          <t>-35.43576779105664,174.4221444146738</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -41868,7 +41868,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-35.435791313248664,174.4221916258736</t>
+          <t>-35.43579132366593,174.422191646782</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -41950,7 +41950,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>-35.43578338050093,174.42217570411296</t>
+          <t>-35.43578340133546,174.4221757459298</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -42032,7 +42032,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>-35.43578184395401,174.42217262012161</t>
+          <t>-35.43578185437128,174.42217264103004</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -42114,7 +42114,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>-35.43575772796952,174.42212421715368</t>
+          <t>-35.43575771234361,174.4221241857911</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -42196,7 +42196,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>-35.435722705065395,174.42205392313173</t>
+          <t>-35.43572269464812,174.42205390222335</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -42308,7 +42308,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>-35.435734419304424,174.42207743461455</t>
+          <t>-35.43573441409579,174.42207742416036</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -42436,7 +42436,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>-35.43577976050042,174.42216843843858</t>
+          <t>-35.43577974487452,174.422168407076</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -42564,7 +42564,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>-35.435765171112465,174.42213915620923</t>
+          <t>-35.43576516590383,174.422139145755</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -42704,7 +42704,7 @@
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr">
         <is>
-          <t>-35.4358718229621,174.4223532167595</t>
+          <t>-35.43587181254486,174.42235319585103</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -42778,7 +42778,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>-35.43587787537502,174.4223653645765</t>
+          <t>-35.435877859749176,174.4223653332138</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -42924,7 +42924,7 @@
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr">
         <is>
-          <t>-35.43589910047914,174.42240796558406</t>
+          <t>-35.43589909527052,174.42240795512978</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -42994,7 +42994,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>-35.435854316793304,174.42231808009748</t>
+          <t>-35.43585432721055,174.42231810100594</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -43056,7 +43056,7 @@
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr">
         <is>
-          <t>-35.435772567375764,174.42215400117962</t>
+          <t>-35.43577257258439,174.4221540116338</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -43138,7 +43138,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-35.435775739434575,174.42216036779098</t>
+          <t>-35.43577576026911,174.42216040960778</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -43200,7 +43200,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>-35.43578836516276,174.4221857087908</t>
+          <t>-35.43578837037139,174.42218571924505</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -43250,7 +43250,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>-35.43577995842852,174.42216883569847</t>
+          <t>-35.43577997926306,174.4221688775153</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
@@ -43324,7 +43324,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>-35.435788964155506,174.4221869110249</t>
+          <t>-35.43578897978141,174.42218694238755</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -43406,7 +43406,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>-35.435833659396266,174.42227661864655</t>
+          <t>-35.435833654187654,174.4222766081923</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -43488,7 +43488,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>-35.435846576781934,174.4223025451187</t>
+          <t>-35.4358465924078,174.4223025764814</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -43570,7 +43570,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>-35.435808157959855,174.4222254347964</t>
+          <t>-35.435808152751235,174.42222542434217</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -43652,7 +43652,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>-35.435833346878795,174.42227599139326</t>
+          <t>-35.4358333260443,174.42227594957637</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -43734,7 +43734,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>-35.435770687058294,174.42215022721155</t>
+          <t>-35.43577069747557,174.42215024811995</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -43816,7 +43816,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>-35.43575983225925,174.42212844065128</t>
+          <t>-35.43575982184198,174.42212841974288</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -43898,7 +43898,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-35.435806725586836,174.42222255988744</t>
+          <t>-35.43580674642137,174.4222226017043</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -43980,7 +43980,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-35.435761655282406,174.42213209962213</t>
+          <t>-35.43576165007377,174.42213208916792</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -44062,7 +44062,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>-35.43577735931998,174.4221636190492</t>
+          <t>-35.43577735411134,174.42216360859499</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -44124,7 +44124,7 @@
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr">
         <is>
-          <t>-35.43577198400859,174.42215283030862</t>
+          <t>-35.43577196317404,174.4221527884918</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -44264,7 +44264,7 @@
       <c r="L292" t="inlineStr"/>
       <c r="M292" t="inlineStr">
         <is>
-          <t>-35.43580136069817,174.4222117920476</t>
+          <t>-35.435801355489545,174.42221178159335</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -44342,7 +44342,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>-35.435736731941525,174.4220820762776</t>
+          <t>-35.43573671110697,174.4220820344608</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -44424,7 +44424,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>-35.43587411996234,174.4223578270754</t>
+          <t>-35.4358741095451,174.42235780616693</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -44482,7 +44482,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>-35.43569607325392,174.4220004708616</t>
+          <t>-35.43569606804528,174.42200046040745</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -44564,7 +44564,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>-35.43575422776448,174.42211719193048</t>
+          <t>-35.43575424339039,174.4221172232931</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -44716,7 +44716,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>-35.435701511083266,174.42201138503248</t>
+          <t>-35.43570150587461,174.4220113745783</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -44798,7 +44798,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>-35.43572871584048,174.42206598727103</t>
+          <t>-35.435728695005906,174.42206594545428</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -44880,7 +44880,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>-35.43572229358248,174.4220530972505</t>
+          <t>-35.4357222727479,174.42205305543376</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -45044,7 +45044,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>-35.435716381770334,174.42204123174275</t>
+          <t>-35.43571636614438,174.42204120038016</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -45126,7 +45126,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>-35.43582897163392,174.42226720984817</t>
+          <t>-35.4358289664253,174.42226719939393</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -45290,7 +45290,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>-35.43575136822165,174.42211145257446</t>
+          <t>-35.435751383847574,174.42211148393707</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -45372,7 +45372,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-35.43571980905893,174.42204811060077</t>
+          <t>-35.435719788224354,174.42204806878402</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -45454,7 +45454,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>-35.435736632977346,174.42208187764786</t>
+          <t>-35.43573661735142,174.42208184628527</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -45536,7 +45536,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>-35.43576567114158,174.42214015981278</t>
+          <t>-35.43576568155886,174.4221401807212</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -45618,7 +45618,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-35.43590510080022,174.42242000886674</t>
+          <t>-35.43590509559161,174.4224199984125</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -45700,7 +45700,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>-35.435771827749505,174.42215251668244</t>
+          <t>-35.43577182254087,174.42215250622826</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -45782,7 +45782,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>-35.43582491932318,174.42225907646554</t>
+          <t>-35.43582493494906,174.4222591078282</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -45864,7 +45864,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>-35.43576279597398,174.42213438909255</t>
+          <t>-35.43576277513943,174.42213434727574</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -45926,7 +45926,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-35.43586961971681,174.42234879462004</t>
+          <t>-35.43586960929958,174.42234877371155</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -46008,7 +46008,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>-35.43577567172233,174.4221602318863</t>
+          <t>-35.43577566651368,174.42216022143208</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -46090,7 +46090,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-35.4358574575914,174.42232438399617</t>
+          <t>-35.43585746800864,174.42232440490463</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -46172,7 +46172,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>-35.43586343187807,174.4223363749955</t>
+          <t>-35.43586342146082,174.42233635408704</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -46254,7 +46254,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>-35.43583558137862,174.42228047625417</t>
+          <t>-35.43583557617,174.42228046579996</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -46336,7 +46336,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-35.435868077965864,174.42234570016794</t>
+          <t>-35.43586806234001,174.42234566880526</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -46418,7 +46418,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>-35.43591013752711,174.42243011811667</t>
+          <t>-35.43591015836155,174.42243015993364</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -46500,7 +46500,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>-35.435857504468984,174.42232447808422</t>
+          <t>-35.43585751488623,174.42232449899265</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -46582,7 +46582,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>-35.4358992515289,174.42240826875695</t>
+          <t>-35.43589923590306,174.42240823739422</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">

--- a/data/nzd0074/nzd0074.xlsx
+++ b/data/nzd0074/nzd0074.xlsx
@@ -20597,13 +20597,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0386</v>
+        <v>0.0545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0432</v>
+        <v>0.0716</v>
       </c>
       <c r="I2" t="n">
         <v>0.3301221920768187</v>
@@ -20675,13 +20675,13 @@
         <v>0.9230263253571017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0346</v>
+        <v>0.0476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0415</v>
+        <v>0.0572</v>
       </c>
       <c r="I3" t="n">
         <v>0.4151464587950139</v>
@@ -20753,13 +20753,13 @@
         <v>0.8460526507142034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381</v>
+        <v>0.0481</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0422</v>
+        <v>0.0587</v>
       </c>
       <c r="I4" t="n">
         <v>0.4272915345995202</v>
@@ -20831,13 +20831,13 @@
         <v>0.7694099035691845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0386</v>
+        <v>0.0486</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0417</v>
+        <v>0.0596</v>
       </c>
       <c r="I5" t="n">
         <v>0.4367762276279427</v>
@@ -20909,13 +20909,13 @@
         <v>0.6924362289260407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0392</v>
+        <v>0.0504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.045</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0.3680810297542612</v>
@@ -20987,13 +20987,13 @@
         <v>0.615512323034235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0384</v>
+        <v>0.0446</v>
       </c>
       <c r="H7" t="n">
-        <v>0.043</v>
+        <v>0.0572</v>
       </c>
       <c r="I7" t="n">
         <v>0.2888436941620056</v>
@@ -21065,13 +21065,13 @@
         <v>0.5385386483890429</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0386</v>
+        <v>0.0419</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0423</v>
+        <v>0.0581</v>
       </c>
       <c r="I8" t="n">
         <v>0.2744073794666402</v>
@@ -21143,13 +21143,13 @@
         <v>0.461564973745922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0377</v>
+        <v>0.0466</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0416</v>
+        <v>0.0604</v>
       </c>
       <c r="I9" t="n">
         <v>0.3051124051841297</v>
@@ -21221,13 +21221,13 @@
         <v>0.384724123923771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.038</v>
+        <v>0.0511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0421</v>
+        <v>0.0692</v>
       </c>
       <c r="I10" t="n">
         <v>0.3567017274530121</v>
@@ -21299,13 +21299,13 @@
         <v>0.3077504492800055</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0388</v>
+        <v>0.0499</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0422</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>0.3274572613807182</v>
@@ -21377,13 +21377,13 @@
         <v>0.2308128233746891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0388</v>
+        <v>0.0475</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0426</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.2805128139061219</v>
@@ -21455,13 +21455,13 @@
         <v>0.1539274515543944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0397</v>
+        <v>0.0476</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0469</v>
+        <v>0.0675</v>
       </c>
       <c r="I13" t="n">
         <v>0.2128005758312356</v>
@@ -21533,13 +21533,13 @@
         <v>0.07695377691149409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0382</v>
+        <v>0.0496</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0413</v>
+        <v>0.0663</v>
       </c>
       <c r="I14" t="n">
         <v>0.09479710606914303</v>
@@ -21611,13 +21611,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.037</v>
+        <v>0.0526</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0414</v>
+        <v>0.0717</v>
       </c>
       <c r="I15" t="n">
         <v>0.1777087386820057</v>
